--- a/RR-ISRU.xlsx
+++ b/RR-ISRU.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="molar Mass" sheetId="1" r:id="rId1"/>
+    <sheet name="Surface" sheetId="2" r:id="rId2"/>
+    <sheet name="Ocean" sheetId="3" r:id="rId3"/>
+    <sheet name="Atmo" sheetId="4" r:id="rId4"/>
+    <sheet name="Exo Bands" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="149">
   <si>
     <t>Resource</t>
   </si>
@@ -50,6 +56,12 @@
     <t>Units</t>
   </si>
   <si>
+    <t>LiquidFuel</t>
+  </si>
+  <si>
+    <t>Dodecane (C12H26)</t>
+  </si>
+  <si>
     <t>Oxidizer</t>
   </si>
   <si>
@@ -65,9 +77,15 @@
     <t>ArgonGas</t>
   </si>
   <si>
+    <t>Ar</t>
+  </si>
+  <si>
     <t>XenonGas</t>
   </si>
   <si>
+    <t>Xe</t>
+  </si>
+  <si>
     <t>gH2</t>
   </si>
   <si>
@@ -146,50 +164,350 @@
     <t>RareMetals</t>
   </si>
   <si>
-    <t>Pt</t>
-  </si>
-  <si>
     <t>Silicates</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>Substrate</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t>Ar</t>
-  </si>
-  <si>
-    <t>Xe</t>
-  </si>
-  <si>
-    <t>LiquidFuel</t>
-  </si>
-  <si>
-    <t>Fe</t>
-  </si>
-  <si>
-    <t>Dodecane (C12H26)</t>
+    <t>Alumina</t>
+  </si>
+  <si>
+    <t>Monazite</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Lanthanum var (LaPO4)</t>
+  </si>
+  <si>
+    <t>Silicon (Si)</t>
+  </si>
+  <si>
+    <t>Platinum (Pt)</t>
+  </si>
+  <si>
+    <t>Iron (Fe)</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Silica</t>
+  </si>
+  <si>
+    <t>Rock-Metal</t>
+  </si>
+  <si>
+    <t>Rock-Ice</t>
+  </si>
+  <si>
+    <t>Ice-Water</t>
+  </si>
+  <si>
+    <t>Ice-Methane</t>
+  </si>
+  <si>
+    <t>Ice-Nitrogen</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Mun</t>
+  </si>
+  <si>
+    <t>Minmus</t>
+  </si>
+  <si>
+    <t>Duna</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>CarbonDioxide</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Uraninite</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Blutonium</t>
+  </si>
+  <si>
+    <t>Gemstones</t>
+  </si>
+  <si>
+    <t>GrayWater</t>
+  </si>
+  <si>
+    <t>Hexagen</t>
+  </si>
+  <si>
+    <t>Hydrokerbon</t>
+  </si>
+  <si>
+    <t>Minerite</t>
+  </si>
+  <si>
+    <t>Nitronite</t>
+  </si>
+  <si>
+    <t>Oxium</t>
+  </si>
+  <si>
+    <t>PreciousMetals</t>
+  </si>
+  <si>
+    <t>Zeonium</t>
+  </si>
+  <si>
+    <t>Terra</t>
+  </si>
+  <si>
+    <t>Explodium</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Ice-Ammonia</t>
+  </si>
+  <si>
+    <t>Gas (Jovian)</t>
+  </si>
+  <si>
+    <t>Gas (Uranian)</t>
+  </si>
+  <si>
+    <t>Star Pop 1</t>
+  </si>
+  <si>
+    <t>Star Pop 2</t>
+  </si>
+  <si>
+    <t>Star Pop 3</t>
+  </si>
+  <si>
+    <t>Neidon</t>
+  </si>
+  <si>
+    <t>Antimatter</t>
+  </si>
+  <si>
+    <t>Deuterium</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Karborundum</t>
+  </si>
+  <si>
+    <t>Graviolium</t>
+  </si>
+  <si>
+    <t>Propellium</t>
+  </si>
+  <si>
+    <t>Celestial Body</t>
+  </si>
+  <si>
+    <t>Radius (km)</t>
+  </si>
+  <si>
+    <t>Atmo (km)</t>
+  </si>
+  <si>
+    <t>SOI (km)</t>
+  </si>
+  <si>
+    <t>ALTs to SOI edge</t>
+  </si>
+  <si>
+    <t>ALT (x)</t>
+  </si>
+  <si>
+    <t>ALT (y)</t>
+  </si>
+  <si>
+    <t>band center min SMA (km)</t>
+  </si>
+  <si>
+    <t>band center max SMA (km)</t>
+  </si>
+  <si>
+    <t>min SMA Suborbital?</t>
+  </si>
+  <si>
+    <t>SMA (km)</t>
+  </si>
+  <si>
+    <t>Range (x)</t>
+  </si>
+  <si>
+    <t>Range (y)</t>
+  </si>
+  <si>
+    <t>Min band width (km)</t>
+  </si>
+  <si>
+    <t>Max band width (km)</t>
+  </si>
+  <si>
+    <t>max band edge suborbital?</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Moho</t>
+  </si>
+  <si>
+    <t>Gilly</t>
+  </si>
+  <si>
+    <t>Kerbin</t>
+  </si>
+  <si>
+    <t>Ike</t>
+  </si>
+  <si>
+    <t>Edna</t>
+  </si>
+  <si>
+    <t>Dak</t>
+  </si>
+  <si>
+    <t>Dres</t>
+  </si>
+  <si>
+    <t>Jool</t>
+  </si>
+  <si>
+    <t>Laythe</t>
+  </si>
+  <si>
+    <t>Vall</t>
+  </si>
+  <si>
+    <t>Tylo</t>
+  </si>
+  <si>
+    <t>Bop</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t>Lindor</t>
+  </si>
+  <si>
+    <t>Krel</t>
+  </si>
+  <si>
+    <t>Aden</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Talos</t>
+  </si>
+  <si>
+    <t>Hamek</t>
+  </si>
+  <si>
+    <t>Eeloo</t>
+  </si>
+  <si>
+    <t>Celes</t>
+  </si>
+  <si>
+    <t>Tam</t>
+  </si>
+  <si>
+    <t>Nara</t>
+  </si>
+  <si>
+    <t>Amos</t>
+  </si>
+  <si>
+    <t>Enon</t>
+  </si>
+  <si>
+    <t>Prax</t>
+  </si>
+  <si>
+    <t>Huygen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;kg/mol&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;kg/unit&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -208,8 +526,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBF9000"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFBF9000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +635,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,11 +666,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DC3E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,19 +730,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,8 +745,103 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="16" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,11 +1154,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,10 +1195,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -679,10 +1219,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="18">
         <v>1</v>
@@ -703,10 +1243,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -720,17 +1260,17 @@
         <v>4</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F28" si="0">C4*D4/(E4 * 1000)</f>
+        <f t="shared" ref="F4:F34" si="0">C4*D4/(E4 * 1000)</f>
         <v>8.0114999999999995E-3</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -750,10 +1290,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -773,10 +1313,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -796,10 +1336,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -819,10 +1359,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -842,10 +1382,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -865,10 +1405,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -888,10 +1428,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -915,10 +1455,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -939,10 +1479,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -963,10 +1503,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -986,10 +1526,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1009,10 +1549,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1032,10 +1572,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="14">
         <v>1</v>
@@ -1055,10 +1595,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1079,164 +1619,159 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="8"/>
       <c r="E21" s="4"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="8">
+        <v>26.98</v>
+      </c>
+      <c r="E22" s="4">
+        <f>0.00277*1000</f>
+        <v>2.77</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F23" si="1">C22*D22/(E22 * 1000)</f>
+        <v>9.7400722021660658E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>101.96</v>
+      </c>
+      <c r="E23" s="4">
+        <f>0.00398*1000</f>
+        <v>3.98</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
+        <v>2.5618090452261304E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>12.01</v>
+      </c>
+      <c r="E24" s="22">
+        <f>$E$2</f>
+        <v>5</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24" si="2">C24*D24/(E24 * 1000)</f>
+        <v>2.4020000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
         <f>40.078+32.065+(16*4)+(18*2)</f>
         <v>172.143</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E25" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F25" s="9">
         <f t="shared" si="0"/>
         <v>3.129872727272727E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D26" s="8">
         <f>(55.845*2)+(16*3)+(18*0.5)</f>
         <v>168.69</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E26" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F26" s="9">
         <f t="shared" si="0"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D27" s="8">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E27" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F27" s="9">
         <f t="shared" si="0"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D28" s="8">
         <f>88.906+30.974+(16*4)</f>
         <v>183.88</v>
-      </c>
-      <c r="E25" s="4">
-        <f>0.0025*1000</f>
-        <v>2.5</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="0"/>
-        <v>7.3551999999999992E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <f>55.845*2</f>
-        <v>111.69</v>
-      </c>
-      <c r="E26" s="4">
-        <f>0.026*1000</f>
-        <v>26</v>
-      </c>
-      <c r="F26" s="9">
-        <f t="shared" si="0"/>
-        <v>4.2957692307692306E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
-        <f>195.078</f>
-        <v>195.078</v>
-      </c>
-      <c r="E27" s="4">
-        <f>0.0078*1000</f>
-        <v>7.8</v>
-      </c>
-      <c r="F27" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5010000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
-        <f>28.086*2</f>
-        <v>56.171999999999997</v>
       </c>
       <c r="E28" s="4">
         <f>0.0025*1000</f>
@@ -1244,75 +1779,163 @@
       </c>
       <c r="F28" s="9">
         <f t="shared" si="0"/>
-        <v>2.2468799999999997E-2</v>
+        <v>7.3551999999999992E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="8">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+      <c r="E29" s="4">
+        <f>0.026*1000</f>
+        <v>26</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2957692307692306E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+      <c r="E30" s="4">
+        <f>0.0078*1000</f>
+        <v>7.8</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4319230769230768E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>233.88</v>
+      </c>
+      <c r="E31" s="4">
+        <f>0.005*1000</f>
+        <v>5</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" ref="F31:F32" si="3">C31*D31/(E31 * 1000)</f>
+        <v>4.6775999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>30.97</v>
+      </c>
+      <c r="E32" s="22">
+        <f>$E$2</f>
+        <v>5</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="3"/>
+        <v>6.1939999999999999E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <f>195.078</f>
+        <v>195.078</v>
+      </c>
+      <c r="E33" s="4">
+        <f>0.0078*1000</f>
+        <v>7.8</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5010000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
+        <f>28.086*2</f>
+        <v>56.171999999999997</v>
+      </c>
+      <c r="E34" s="4">
+        <f>0.0025*1000</f>
+        <v>2.5</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>2.2468799999999997E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
         <v>0</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E35" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -1354,6 +1977,5129 @@
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="48">
+        <v>92</v>
+      </c>
+      <c r="C3" s="48">
+        <v>88</v>
+      </c>
+      <c r="D3" s="48">
+        <v>95</v>
+      </c>
+      <c r="E3" s="48">
+        <v>94</v>
+      </c>
+      <c r="F3" s="48">
+        <v>92</v>
+      </c>
+      <c r="G3" s="48">
+        <v>93</v>
+      </c>
+      <c r="H3" s="48">
+        <v>95</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48">
+        <v>95</v>
+      </c>
+      <c r="K3" s="48">
+        <v>96</v>
+      </c>
+      <c r="L3" s="48">
+        <v>97</v>
+      </c>
+      <c r="M3" s="48">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48">
+        <v>9</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48">
+        <v>13</v>
+      </c>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48">
+        <v>3</v>
+      </c>
+      <c r="F6" s="48">
+        <v>9</v>
+      </c>
+      <c r="G6" s="48">
+        <v>10</v>
+      </c>
+      <c r="H6" s="48">
+        <v>5</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48">
+        <v>5</v>
+      </c>
+      <c r="F7" s="48">
+        <v>4</v>
+      </c>
+      <c r="G7" s="48">
+        <v>5</v>
+      </c>
+      <c r="H7" s="48">
+        <v>4</v>
+      </c>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="48">
+        <v>4</v>
+      </c>
+      <c r="C8" s="48">
+        <v>4</v>
+      </c>
+      <c r="D8" s="48">
+        <v>5</v>
+      </c>
+      <c r="E8" s="48">
+        <v>3</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48">
+        <v>3</v>
+      </c>
+      <c r="H8" s="48">
+        <v>5</v>
+      </c>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48">
+        <v>6</v>
+      </c>
+      <c r="K8" s="48">
+        <v>3</v>
+      </c>
+      <c r="L8" s="48">
+        <v>3</v>
+      </c>
+      <c r="M8" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="48">
+        <v>7</v>
+      </c>
+      <c r="C9" s="48">
+        <v>5</v>
+      </c>
+      <c r="D9" s="48">
+        <v>5</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48">
+        <v>3</v>
+      </c>
+      <c r="K9" s="48">
+        <v>7</v>
+      </c>
+      <c r="L9" s="48">
+        <v>3</v>
+      </c>
+      <c r="M9" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="48">
+        <v>7</v>
+      </c>
+      <c r="C10" s="48">
+        <v>3</v>
+      </c>
+      <c r="D10" s="48">
+        <v>3</v>
+      </c>
+      <c r="E10" s="48">
+        <v>18</v>
+      </c>
+      <c r="F10" s="48">
+        <v>20</v>
+      </c>
+      <c r="G10" s="48">
+        <v>18</v>
+      </c>
+      <c r="H10" s="48">
+        <v>5</v>
+      </c>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48">
+        <v>6</v>
+      </c>
+      <c r="K10" s="48">
+        <v>3</v>
+      </c>
+      <c r="L10" s="48">
+        <v>15</v>
+      </c>
+      <c r="M10" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="48">
+        <v>7</v>
+      </c>
+      <c r="C11" s="48">
+        <v>4</v>
+      </c>
+      <c r="D11" s="48">
+        <v>9</v>
+      </c>
+      <c r="E11" s="48">
+        <v>3</v>
+      </c>
+      <c r="F11" s="48">
+        <v>2</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48">
+        <v>6</v>
+      </c>
+      <c r="K11" s="48">
+        <v>3</v>
+      </c>
+      <c r="L11" s="48">
+        <v>3</v>
+      </c>
+      <c r="M11" s="48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48">
+        <v>2</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48">
+        <v>10</v>
+      </c>
+      <c r="H12" s="48">
+        <v>5</v>
+      </c>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48">
+        <v>6</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="48">
+        <v>7</v>
+      </c>
+      <c r="C13" s="48">
+        <v>4</v>
+      </c>
+      <c r="D13" s="48">
+        <v>5</v>
+      </c>
+      <c r="E13" s="48">
+        <v>9</v>
+      </c>
+      <c r="F13" s="48">
+        <v>9</v>
+      </c>
+      <c r="G13" s="48">
+        <v>10</v>
+      </c>
+      <c r="H13" s="48">
+        <v>5</v>
+      </c>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48">
+        <v>10</v>
+      </c>
+      <c r="K13" s="48">
+        <v>7</v>
+      </c>
+      <c r="L13" s="48">
+        <v>10</v>
+      </c>
+      <c r="M13" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48">
+        <v>3</v>
+      </c>
+      <c r="H15" s="48">
+        <v>30</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48">
+        <v>30</v>
+      </c>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="48">
+        <v>4</v>
+      </c>
+      <c r="C16" s="48">
+        <v>5</v>
+      </c>
+      <c r="D16" s="48">
+        <v>3</v>
+      </c>
+      <c r="E16" s="48">
+        <v>5</v>
+      </c>
+      <c r="F16" s="48">
+        <v>4</v>
+      </c>
+      <c r="G16" s="48">
+        <v>3</v>
+      </c>
+      <c r="H16" s="48">
+        <v>4</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48">
+        <v>10</v>
+      </c>
+      <c r="K16" s="48">
+        <v>3</v>
+      </c>
+      <c r="L16" s="48">
+        <v>3</v>
+      </c>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48">
+        <v>9</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48">
+        <v>30</v>
+      </c>
+      <c r="L17" s="48">
+        <v>15</v>
+      </c>
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="48">
+        <v>5</v>
+      </c>
+      <c r="C18" s="48">
+        <v>3</v>
+      </c>
+      <c r="D18" s="48">
+        <v>15</v>
+      </c>
+      <c r="E18" s="48">
+        <v>3</v>
+      </c>
+      <c r="F18" s="48">
+        <v>2</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48">
+        <v>3</v>
+      </c>
+      <c r="K18" s="48">
+        <v>7</v>
+      </c>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="48">
+        <v>18</v>
+      </c>
+      <c r="C19" s="48">
+        <v>18</v>
+      </c>
+      <c r="D19" s="48">
+        <v>18</v>
+      </c>
+      <c r="E19" s="48">
+        <v>18</v>
+      </c>
+      <c r="F19" s="48">
+        <v>9</v>
+      </c>
+      <c r="G19" s="48">
+        <v>5</v>
+      </c>
+      <c r="H19" s="48">
+        <v>4</v>
+      </c>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48">
+        <v>30</v>
+      </c>
+      <c r="K19" s="48">
+        <v>7</v>
+      </c>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="48">
+        <v>18</v>
+      </c>
+      <c r="C20" s="48">
+        <v>30</v>
+      </c>
+      <c r="D20" s="48">
+        <v>5</v>
+      </c>
+      <c r="E20" s="48">
+        <v>5</v>
+      </c>
+      <c r="F20" s="48">
+        <v>9</v>
+      </c>
+      <c r="G20" s="48">
+        <v>5</v>
+      </c>
+      <c r="H20" s="48">
+        <v>5</v>
+      </c>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48">
+        <v>6</v>
+      </c>
+      <c r="K20" s="48">
+        <v>7</v>
+      </c>
+      <c r="L20" s="48">
+        <v>10</v>
+      </c>
+      <c r="M20" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="48">
+        <v>7</v>
+      </c>
+      <c r="C21" s="48">
+        <v>6</v>
+      </c>
+      <c r="D21" s="48">
+        <v>3</v>
+      </c>
+      <c r="E21" s="48">
+        <v>5</v>
+      </c>
+      <c r="F21" s="48">
+        <v>4</v>
+      </c>
+      <c r="G21" s="48">
+        <v>3</v>
+      </c>
+      <c r="H21" s="48">
+        <v>5</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48">
+        <v>6</v>
+      </c>
+      <c r="K21" s="48">
+        <v>3</v>
+      </c>
+      <c r="L21" s="48">
+        <v>5</v>
+      </c>
+      <c r="M21" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="48">
+        <v>4</v>
+      </c>
+      <c r="C22" s="48">
+        <v>2</v>
+      </c>
+      <c r="D22" s="48">
+        <v>15</v>
+      </c>
+      <c r="E22" s="48">
+        <v>3</v>
+      </c>
+      <c r="F22" s="48">
+        <v>2</v>
+      </c>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48">
+        <v>3</v>
+      </c>
+      <c r="K22" s="48">
+        <v>3</v>
+      </c>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="48">
+        <v>4</v>
+      </c>
+      <c r="C23" s="48">
+        <v>2</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48">
+        <v>5</v>
+      </c>
+      <c r="F23" s="48">
+        <v>18</v>
+      </c>
+      <c r="G23" s="48">
+        <v>18</v>
+      </c>
+      <c r="H23" s="48">
+        <v>18</v>
+      </c>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="48">
+        <v>93</v>
+      </c>
+      <c r="C27" s="48">
+        <v>84</v>
+      </c>
+      <c r="D27" s="48">
+        <v>95</v>
+      </c>
+      <c r="E27" s="48">
+        <v>84</v>
+      </c>
+      <c r="F27" s="48">
+        <v>90</v>
+      </c>
+      <c r="G27" s="48">
+        <v>75</v>
+      </c>
+      <c r="H27" s="48">
+        <v>60</v>
+      </c>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48">
+        <v>98</v>
+      </c>
+      <c r="K27" s="48">
+        <v>88</v>
+      </c>
+      <c r="L27" s="48">
+        <v>76</v>
+      </c>
+      <c r="M27" s="48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="48">
+        <v>4</v>
+      </c>
+      <c r="C29" s="48">
+        <v>2</v>
+      </c>
+      <c r="D29" s="48">
+        <v>15</v>
+      </c>
+      <c r="E29" s="48">
+        <v>3</v>
+      </c>
+      <c r="F29" s="48">
+        <v>2</v>
+      </c>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48">
+        <v>3</v>
+      </c>
+      <c r="K29" s="48">
+        <v>3</v>
+      </c>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="48">
+        <v>4</v>
+      </c>
+      <c r="C30" s="48">
+        <v>4</v>
+      </c>
+      <c r="D30" s="48">
+        <v>5</v>
+      </c>
+      <c r="E30" s="48">
+        <v>3</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48">
+        <v>3</v>
+      </c>
+      <c r="H30" s="48">
+        <v>5</v>
+      </c>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48">
+        <v>6</v>
+      </c>
+      <c r="K30" s="48">
+        <v>3</v>
+      </c>
+      <c r="L30" s="48">
+        <v>3</v>
+      </c>
+      <c r="M30" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="48">
+        <v>4</v>
+      </c>
+      <c r="C31" s="48">
+        <v>4</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48">
+        <v>5</v>
+      </c>
+      <c r="F31" s="48">
+        <v>18</v>
+      </c>
+      <c r="G31" s="48">
+        <v>18</v>
+      </c>
+      <c r="H31" s="48">
+        <v>18</v>
+      </c>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="48">
+        <v>4</v>
+      </c>
+      <c r="C32" s="48">
+        <v>4</v>
+      </c>
+      <c r="D32" s="48">
+        <v>5</v>
+      </c>
+      <c r="E32" s="48">
+        <v>3</v>
+      </c>
+      <c r="F32" s="48">
+        <v>2</v>
+      </c>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48">
+        <v>6</v>
+      </c>
+      <c r="K32" s="48">
+        <v>4</v>
+      </c>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48">
+        <v>2</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48">
+        <v>2</v>
+      </c>
+      <c r="F33" s="48">
+        <v>5</v>
+      </c>
+      <c r="G33" s="48">
+        <v>10</v>
+      </c>
+      <c r="H33" s="48">
+        <v>5</v>
+      </c>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48">
+        <v>6</v>
+      </c>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="48">
+        <v>7</v>
+      </c>
+      <c r="C34" s="48">
+        <v>4</v>
+      </c>
+      <c r="D34" s="48">
+        <v>18</v>
+      </c>
+      <c r="E34" s="48">
+        <v>3</v>
+      </c>
+      <c r="F34" s="48">
+        <v>2</v>
+      </c>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48">
+        <v>6</v>
+      </c>
+      <c r="K34" s="48">
+        <v>15</v>
+      </c>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="48">
+        <v>7</v>
+      </c>
+      <c r="C35" s="48">
+        <v>18</v>
+      </c>
+      <c r="D35" s="48">
+        <v>5</v>
+      </c>
+      <c r="E35" s="48">
+        <v>9</v>
+      </c>
+      <c r="F35" s="48">
+        <v>9</v>
+      </c>
+      <c r="G35" s="48">
+        <v>10</v>
+      </c>
+      <c r="H35" s="48">
+        <v>5</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48">
+        <v>10</v>
+      </c>
+      <c r="K35" s="48">
+        <v>7</v>
+      </c>
+      <c r="L35" s="48">
+        <v>10</v>
+      </c>
+      <c r="M35" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="48">
+        <v>4</v>
+      </c>
+      <c r="C36" s="48">
+        <v>3</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48">
+        <v>2</v>
+      </c>
+      <c r="F36" s="48">
+        <v>4</v>
+      </c>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48">
+        <v>4</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48">
+        <v>15</v>
+      </c>
+      <c r="M36" s="48"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="48">
+        <v>4</v>
+      </c>
+      <c r="C37" s="48">
+        <v>5</v>
+      </c>
+      <c r="D37" s="48">
+        <v>3</v>
+      </c>
+      <c r="E37" s="48">
+        <v>5</v>
+      </c>
+      <c r="F37" s="48">
+        <v>4</v>
+      </c>
+      <c r="G37" s="48">
+        <v>3</v>
+      </c>
+      <c r="H37" s="48">
+        <v>4</v>
+      </c>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48">
+        <v>10</v>
+      </c>
+      <c r="K37" s="48">
+        <v>3</v>
+      </c>
+      <c r="L37" s="48">
+        <v>3</v>
+      </c>
+      <c r="M37" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48">
+        <v>30</v>
+      </c>
+      <c r="L38" s="48">
+        <v>15</v>
+      </c>
+      <c r="M38" s="48"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="48">
+        <v>5</v>
+      </c>
+      <c r="C39" s="48">
+        <v>3</v>
+      </c>
+      <c r="D39" s="48">
+        <v>15</v>
+      </c>
+      <c r="E39" s="48">
+        <v>3</v>
+      </c>
+      <c r="F39" s="48">
+        <v>2</v>
+      </c>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48">
+        <v>3</v>
+      </c>
+      <c r="K39" s="48">
+        <v>7</v>
+      </c>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="48">
+        <v>43</v>
+      </c>
+      <c r="C40" s="48">
+        <v>30</v>
+      </c>
+      <c r="D40" s="48">
+        <v>26</v>
+      </c>
+      <c r="E40" s="48">
+        <v>28</v>
+      </c>
+      <c r="F40" s="48">
+        <v>22</v>
+      </c>
+      <c r="G40" s="48">
+        <v>13</v>
+      </c>
+      <c r="H40" s="48">
+        <v>14</v>
+      </c>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48">
+        <v>42</v>
+      </c>
+      <c r="K40" s="48">
+        <v>13</v>
+      </c>
+      <c r="L40" s="48">
+        <v>15</v>
+      </c>
+      <c r="M40" s="48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="48">
+        <v>7</v>
+      </c>
+      <c r="C42" s="48">
+        <v>5</v>
+      </c>
+      <c r="D42" s="48">
+        <v>3</v>
+      </c>
+      <c r="E42" s="48">
+        <v>18</v>
+      </c>
+      <c r="F42" s="48">
+        <v>20</v>
+      </c>
+      <c r="G42" s="48">
+        <v>18</v>
+      </c>
+      <c r="H42" s="48">
+        <v>5</v>
+      </c>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48">
+        <v>6</v>
+      </c>
+      <c r="K42" s="48">
+        <v>3</v>
+      </c>
+      <c r="L42" s="48">
+        <v>15</v>
+      </c>
+      <c r="M42" s="48">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G22" sqref="A2:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="48">
+        <v>95</v>
+      </c>
+      <c r="C3" s="48">
+        <v>95</v>
+      </c>
+      <c r="D3" s="48">
+        <v>95</v>
+      </c>
+      <c r="E3" s="48">
+        <v>95</v>
+      </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="48">
+        <v>2</v>
+      </c>
+      <c r="C5" s="48">
+        <v>85</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="48">
+        <v>2</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48">
+        <v>5</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="48">
+        <v>1</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48">
+        <v>85</v>
+      </c>
+      <c r="E7" s="48">
+        <v>2</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48">
+        <v>85</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48">
+        <v>3</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="48">
+        <v>90</v>
+      </c>
+      <c r="C10" s="48">
+        <v>10</v>
+      </c>
+      <c r="D10" s="48">
+        <v>5</v>
+      </c>
+      <c r="E10" s="48">
+        <v>5</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="48">
+        <v>97</v>
+      </c>
+      <c r="C13" s="48">
+        <v>95</v>
+      </c>
+      <c r="D13" s="48">
+        <v>93</v>
+      </c>
+      <c r="E13" s="48">
+        <v>93</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="48">
+        <v>90</v>
+      </c>
+      <c r="C16" s="48">
+        <v>50</v>
+      </c>
+      <c r="D16" s="48">
+        <v>5</v>
+      </c>
+      <c r="E16" s="48">
+        <v>65</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="48">
+        <v>2</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48">
+        <v>85</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="48">
+        <v>3</v>
+      </c>
+      <c r="C19" s="48">
+        <v>5</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48">
+        <v>25</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="48">
+        <v>2</v>
+      </c>
+      <c r="C22" s="48">
+        <v>40</v>
+      </c>
+      <c r="D22" s="48">
+        <v>3</v>
+      </c>
+      <c r="E22" s="48">
+        <v>3</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="48">
+        <v>93</v>
+      </c>
+      <c r="C3" s="48">
+        <v>92</v>
+      </c>
+      <c r="D3" s="48">
+        <v>92</v>
+      </c>
+      <c r="E3" s="48">
+        <v>93</v>
+      </c>
+      <c r="F3" s="48">
+        <v>92</v>
+      </c>
+      <c r="G3" s="48">
+        <v>90</v>
+      </c>
+      <c r="H3" s="48">
+        <v>92</v>
+      </c>
+      <c r="I3" s="48">
+        <v>95</v>
+      </c>
+      <c r="J3" s="48">
+        <v>93</v>
+      </c>
+      <c r="K3" s="48">
+        <v>100</v>
+      </c>
+      <c r="L3" s="48">
+        <v>100</v>
+      </c>
+      <c r="M3" s="48">
+        <v>100</v>
+      </c>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48">
+        <v>6</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48">
+        <v>2</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48">
+        <v>4</v>
+      </c>
+      <c r="J5" s="48">
+        <v>2</v>
+      </c>
+      <c r="K5" s="48">
+        <v>1</v>
+      </c>
+      <c r="L5" s="48">
+        <v>1</v>
+      </c>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48">
+        <v>3</v>
+      </c>
+      <c r="L6" s="48">
+        <v>5</v>
+      </c>
+      <c r="M6" s="48">
+        <v>9</v>
+      </c>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48">
+        <v>1</v>
+      </c>
+      <c r="L7" s="48">
+        <v>1</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="48">
+        <v>80</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1</v>
+      </c>
+      <c r="D8" s="48">
+        <v>2</v>
+      </c>
+      <c r="E8" s="48">
+        <v>91</v>
+      </c>
+      <c r="F8" s="48">
+        <v>6</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48">
+        <v>2</v>
+      </c>
+      <c r="J8" s="48">
+        <v>1</v>
+      </c>
+      <c r="K8" s="48">
+        <v>1</v>
+      </c>
+      <c r="L8" s="48">
+        <v>1</v>
+      </c>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48">
+        <v>2</v>
+      </c>
+      <c r="L9" s="48">
+        <v>3</v>
+      </c>
+      <c r="M9" s="48">
+        <v>1</v>
+      </c>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48">
+        <v>12</v>
+      </c>
+      <c r="J10" s="48">
+        <v>10</v>
+      </c>
+      <c r="K10" s="48">
+        <v>7</v>
+      </c>
+      <c r="L10" s="48">
+        <v>7</v>
+      </c>
+      <c r="M10" s="48">
+        <v>5</v>
+      </c>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="48">
+        <v>2</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48">
+        <v>2</v>
+      </c>
+      <c r="G11" s="48">
+        <v>4</v>
+      </c>
+      <c r="H11" s="48">
+        <v>2</v>
+      </c>
+      <c r="I11" s="48">
+        <v>74</v>
+      </c>
+      <c r="J11" s="48">
+        <v>74</v>
+      </c>
+      <c r="K11" s="48">
+        <v>70</v>
+      </c>
+      <c r="L11" s="48">
+        <v>75</v>
+      </c>
+      <c r="M11" s="48">
+        <v>85</v>
+      </c>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48">
+        <v>8</v>
+      </c>
+      <c r="L12" s="48">
+        <v>2</v>
+      </c>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48">
+        <v>4</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48">
+        <v>6</v>
+      </c>
+      <c r="G13" s="48">
+        <v>1</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48">
+        <v>1</v>
+      </c>
+      <c r="J13" s="48">
+        <v>4</v>
+      </c>
+      <c r="K13" s="48">
+        <v>1</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="48">
+        <v>10</v>
+      </c>
+      <c r="C14" s="48">
+        <v>74</v>
+      </c>
+      <c r="D14" s="48">
+        <v>80</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48">
+        <v>75</v>
+      </c>
+      <c r="G14" s="48">
+        <v>85</v>
+      </c>
+      <c r="H14" s="48">
+        <v>90</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48">
+        <v>2</v>
+      </c>
+      <c r="L14" s="48">
+        <v>2</v>
+      </c>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48">
+        <v>16</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48">
+        <v>2</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48">
+        <v>1</v>
+      </c>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48">
+        <v>2</v>
+      </c>
+      <c r="L15" s="48">
+        <v>2</v>
+      </c>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="48">
+        <v>1</v>
+      </c>
+      <c r="C16" s="48">
+        <v>1</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48">
+        <v>1</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48">
+        <v>1</v>
+      </c>
+      <c r="J16" s="48">
+        <v>2</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48">
+        <v>2</v>
+      </c>
+      <c r="L17" s="48">
+        <v>1</v>
+      </c>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="48">
+        <v>10</v>
+      </c>
+      <c r="C20" s="48">
+        <v>9</v>
+      </c>
+      <c r="D20" s="48">
+        <v>16</v>
+      </c>
+      <c r="E20" s="48">
+        <v>3</v>
+      </c>
+      <c r="F20" s="48">
+        <v>13</v>
+      </c>
+      <c r="G20" s="48">
+        <v>9</v>
+      </c>
+      <c r="H20" s="48">
+        <v>4</v>
+      </c>
+      <c r="I20" s="48">
+        <v>89</v>
+      </c>
+      <c r="J20" s="48">
+        <v>92</v>
+      </c>
+      <c r="K20" s="48">
+        <v>95</v>
+      </c>
+      <c r="L20" s="48">
+        <v>95</v>
+      </c>
+      <c r="M20" s="48">
+        <v>99</v>
+      </c>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48">
+        <v>1</v>
+      </c>
+      <c r="L22" s="48">
+        <v>5</v>
+      </c>
+      <c r="M22" s="48">
+        <v>9</v>
+      </c>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48">
+        <v>12</v>
+      </c>
+      <c r="J23" s="48">
+        <v>10</v>
+      </c>
+      <c r="K23" s="48">
+        <v>7</v>
+      </c>
+      <c r="L23" s="48">
+        <v>7</v>
+      </c>
+      <c r="M23" s="48">
+        <v>5</v>
+      </c>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="48">
+        <v>2</v>
+      </c>
+      <c r="C24" s="48">
+        <v>1</v>
+      </c>
+      <c r="D24" s="48">
+        <v>4</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48">
+        <v>6</v>
+      </c>
+      <c r="G24" s="48">
+        <v>2</v>
+      </c>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48">
+        <v>1</v>
+      </c>
+      <c r="J24" s="48">
+        <v>6</v>
+      </c>
+      <c r="K24" s="48">
+        <v>4</v>
+      </c>
+      <c r="L24" s="48">
+        <v>2</v>
+      </c>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="48">
+        <v>2</v>
+      </c>
+      <c r="C25" s="48">
+        <v>6</v>
+      </c>
+      <c r="D25" s="48">
+        <v>6</v>
+      </c>
+      <c r="E25" s="48">
+        <v>3</v>
+      </c>
+      <c r="F25" s="48">
+        <v>2</v>
+      </c>
+      <c r="G25" s="48">
+        <v>3</v>
+      </c>
+      <c r="H25" s="48">
+        <v>1</v>
+      </c>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48">
+        <v>2</v>
+      </c>
+      <c r="L25" s="48">
+        <v>1</v>
+      </c>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48">
+        <v>2</v>
+      </c>
+      <c r="L26" s="48">
+        <v>1</v>
+      </c>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="48">
+        <v>2</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48">
+        <v>2</v>
+      </c>
+      <c r="G27" s="48">
+        <v>4</v>
+      </c>
+      <c r="H27" s="48">
+        <v>2</v>
+      </c>
+      <c r="I27" s="48">
+        <v>74</v>
+      </c>
+      <c r="J27" s="48">
+        <v>70</v>
+      </c>
+      <c r="K27" s="48">
+        <v>70</v>
+      </c>
+      <c r="L27" s="48">
+        <v>75</v>
+      </c>
+      <c r="M27" s="48">
+        <v>85</v>
+      </c>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48">
+        <v>5</v>
+      </c>
+      <c r="L28" s="48">
+        <v>2</v>
+      </c>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="48">
+        <v>1</v>
+      </c>
+      <c r="C29" s="48">
+        <v>1</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48">
+        <v>1</v>
+      </c>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48">
+        <v>1</v>
+      </c>
+      <c r="J29" s="48">
+        <v>2</v>
+      </c>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="48">
+        <v>3</v>
+      </c>
+      <c r="C30" s="48">
+        <v>1</v>
+      </c>
+      <c r="D30" s="48">
+        <v>6</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48">
+        <v>2</v>
+      </c>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48">
+        <v>1</v>
+      </c>
+      <c r="I30" s="48">
+        <v>1</v>
+      </c>
+      <c r="J30" s="48">
+        <v>4</v>
+      </c>
+      <c r="K30" s="48">
+        <v>4</v>
+      </c>
+      <c r="L30" s="48">
+        <v>2</v>
+      </c>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="12.5" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="38" customWidth="1"/>
+    <col min="6" max="7" width="12.5" style="36" customWidth="1"/>
+    <col min="8" max="10" width="12.5" style="38" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="13" width="12.5" style="36" customWidth="1"/>
+    <col min="14" max="17" width="12.5" style="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="28">
+        <v>175750</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1600</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="43">
+        <v>9</v>
+      </c>
+      <c r="G2" s="43">
+        <v>12</v>
+      </c>
+      <c r="H2" s="50">
+        <f>(F2*(B2/2)+B2)</f>
+        <v>966625</v>
+      </c>
+      <c r="I2" s="50">
+        <f>IF(G2&gt;=F2,SUM(G2*(B2/2)+B2),H2)</f>
+        <v>1230250</v>
+      </c>
+      <c r="J2" s="44" t="str">
+        <f>IF(H2&lt;=B2+C2,"Yes","-")</f>
+        <v>-</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="43">
+        <v>5</v>
+      </c>
+      <c r="M2" s="43">
+        <v>10</v>
+      </c>
+      <c r="N2" s="45">
+        <f>L2*B2</f>
+        <v>878750</v>
+      </c>
+      <c r="O2" s="45">
+        <f>IF((M2*B2&gt;=N2),M2*B2,N2)</f>
+        <v>1757500</v>
+      </c>
+      <c r="P2" s="44" t="str">
+        <f>IF(SUM(H2-(N2/2))&lt;=B2+C2,"Yes","-")</f>
+        <v>-</v>
+      </c>
+      <c r="Q2" s="44" t="str">
+        <f>IF(SUM(I2-(O2/2))&lt;=B2+C2,"Yes","-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="31">
+        <v>650</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33">
+        <v>26572</v>
+      </c>
+      <c r="E3" s="49">
+        <f>IF((B3&gt;0),(D3/(B3/2)),0)</f>
+        <v>81.760000000000005</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="50">
+        <f t="shared" ref="H3:H33" si="0">(F3*(B3/2)+B3)</f>
+        <v>650</v>
+      </c>
+      <c r="I3" s="50">
+        <f t="shared" ref="I3:I33" si="1">IF(G3&gt;=F3,SUM(G3*(B3/2)+B3),H3)</f>
+        <v>650</v>
+      </c>
+      <c r="J3" s="44" t="str">
+        <f t="shared" ref="J3:J33" si="2">IF(H3&lt;=B3+C3,"Yes","-")</f>
+        <v>Yes</v>
+      </c>
+      <c r="K3" s="34">
+        <v>14522400</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="45">
+        <f t="shared" ref="N3:N33" si="3">L3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="45">
+        <f t="shared" ref="O3:O33" si="4">IF((M3*B3&gt;=N3),M3*B3,N3)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="44" t="str">
+        <f t="shared" ref="P3:P33" si="5">IF(SUM(H3-(N3/2))&lt;=B3+C3,"Yes","-")</f>
+        <v>Yes</v>
+      </c>
+      <c r="Q3" s="44" t="str">
+        <f t="shared" ref="Q3:Q33" si="6">IF(SUM(I3-(O3/2))&lt;=B3+C3,"Yes","-")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="33">
+        <v>2050</v>
+      </c>
+      <c r="C4" s="31">
+        <v>60</v>
+      </c>
+      <c r="D4" s="33">
+        <v>233567</v>
+      </c>
+      <c r="E4" s="49">
+        <f t="shared" ref="E4:E33" si="7">IF((B4&gt;0),(D4/(B4/2)),0)</f>
+        <v>227.87024390243903</v>
+      </c>
+      <c r="F4" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="50">
+        <f t="shared" si="0"/>
+        <v>2152.5</v>
+      </c>
+      <c r="I4" s="50">
+        <f t="shared" si="1"/>
+        <v>2152.5</v>
+      </c>
+      <c r="J4" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K4" s="34">
+        <v>27131000</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Q4" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="31">
+        <v>30</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="31">
+        <v>366</v>
+      </c>
+      <c r="E5" s="49">
+        <f t="shared" si="7"/>
+        <v>24.4</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="50">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I5" s="50">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J5" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K5" s="33">
+        <v>86920</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q5" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1600</v>
+      </c>
+      <c r="C6" s="31">
+        <v>85</v>
+      </c>
+      <c r="D6" s="33">
+        <v>231588</v>
+      </c>
+      <c r="E6" s="49">
+        <f t="shared" si="7"/>
+        <v>289.48500000000001</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0.11</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="50">
+        <f t="shared" si="0"/>
+        <v>1688</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" si="1"/>
+        <v>1688</v>
+      </c>
+      <c r="J6" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K6" s="34">
+        <v>37525648</v>
+      </c>
+      <c r="L6" s="43">
+        <v>10</v>
+      </c>
+      <c r="M6" s="42"/>
+      <c r="N6" s="45">
+        <f t="shared" si="3"/>
+        <v>16000</v>
+      </c>
+      <c r="O6" s="45">
+        <f t="shared" si="4"/>
+        <v>16000</v>
+      </c>
+      <c r="P6" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q6" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="31">
+        <v>400</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33">
+        <v>13860</v>
+      </c>
+      <c r="E7" s="49">
+        <f t="shared" si="7"/>
+        <v>69.3</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="50">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I7" s="50">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J7" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K7" s="33">
+        <v>90960</v>
+      </c>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q7" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="31">
+        <v>160</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33">
+        <v>8655</v>
+      </c>
+      <c r="E8" s="49">
+        <f t="shared" si="7"/>
+        <v>108.1875</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="50">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="I8" s="50">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="J8" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K8" s="33">
+        <v>181010</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q8" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="31">
+        <v>800</v>
+      </c>
+      <c r="C9" s="31">
+        <v>70</v>
+      </c>
+      <c r="D9" s="33">
+        <v>131664</v>
+      </c>
+      <c r="E9" s="49">
+        <f t="shared" si="7"/>
+        <v>329.16</v>
+      </c>
+      <c r="F9" s="43">
+        <v>0.18</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="50">
+        <f t="shared" si="0"/>
+        <v>872</v>
+      </c>
+      <c r="I9" s="50">
+        <f t="shared" si="1"/>
+        <v>872</v>
+      </c>
+      <c r="J9" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K9" s="34">
+        <v>57189100</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Q9" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="31">
+        <v>210</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33">
+        <v>6286</v>
+      </c>
+      <c r="E10" s="49">
+        <f t="shared" si="7"/>
+        <v>59.866666666666667</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="50">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I10" s="50">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="J10" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K10" s="33">
+        <v>36680</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q10" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="31">
+        <v>260</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33">
+        <v>49409</v>
+      </c>
+      <c r="E11" s="49">
+        <f t="shared" si="7"/>
+        <v>380.06923076923078</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="50">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="I11" s="50">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="J11" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K11" s="34">
+        <v>94080000</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q11" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="31">
+        <v>20</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="31">
+        <v>244</v>
+      </c>
+      <c r="E12" s="49">
+        <f t="shared" si="7"/>
+        <v>24.4</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="50">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="50">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J12" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K12" s="33">
+        <v>4770</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q12" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="31">
+        <v>360</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33">
+        <v>90298</v>
+      </c>
+      <c r="E13" s="49">
+        <f t="shared" si="7"/>
+        <v>501.65555555555557</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="50">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="I13" s="50">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="J13" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K13" s="34">
+        <v>112687000</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q13" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="33">
+        <v>14000</v>
+      </c>
+      <c r="C14" s="31">
+        <v>700</v>
+      </c>
+      <c r="D14" s="33">
+        <v>6745648</v>
+      </c>
+      <c r="E14" s="49">
+        <f t="shared" si="7"/>
+        <v>963.66399999999999</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0.11</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="50">
+        <f t="shared" si="0"/>
+        <v>14770</v>
+      </c>
+      <c r="I14" s="50">
+        <f t="shared" si="1"/>
+        <v>14770</v>
+      </c>
+      <c r="J14" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K14" s="34">
+        <v>189765000</v>
+      </c>
+      <c r="L14" s="43">
+        <v>75</v>
+      </c>
+      <c r="M14" s="43">
+        <v>100</v>
+      </c>
+      <c r="N14" s="45">
+        <f t="shared" si="3"/>
+        <v>1050000</v>
+      </c>
+      <c r="O14" s="45">
+        <f t="shared" si="4"/>
+        <v>1400000</v>
+      </c>
+      <c r="P14" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q14" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1100</v>
+      </c>
+      <c r="C15" s="31">
+        <v>75</v>
+      </c>
+      <c r="D15" s="33">
+        <v>9067</v>
+      </c>
+      <c r="E15" s="49">
+        <f t="shared" si="7"/>
+        <v>16.485454545454544</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="50">
+        <f t="shared" si="0"/>
+        <v>1210</v>
+      </c>
+      <c r="I15" s="50">
+        <f t="shared" si="1"/>
+        <v>1210</v>
+      </c>
+      <c r="J15" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K15" s="33">
+        <v>87640</v>
+      </c>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Q15" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="31">
+        <v>550</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33">
+        <v>5962</v>
+      </c>
+      <c r="E16" s="49">
+        <f t="shared" si="7"/>
+        <v>21.68</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="50">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="I16" s="50">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="J16" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K16" s="33">
+        <v>160230</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q16" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="31">
+        <v>900</v>
+      </c>
+      <c r="C17" s="31">
+        <v>85</v>
+      </c>
+      <c r="D17" s="33">
+        <v>20348</v>
+      </c>
+      <c r="E17" s="49">
+        <f t="shared" si="7"/>
+        <v>45.217777777777776</v>
+      </c>
+      <c r="F17" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="50">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="I17" s="50">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="J17" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K17" s="33">
+        <v>292950</v>
+      </c>
+      <c r="L17" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="45">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="O17" s="45">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="P17" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q17" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="31">
+        <v>190</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33">
+        <v>5553</v>
+      </c>
+      <c r="E18" s="49">
+        <f t="shared" si="7"/>
+        <v>58.452631578947368</v>
+      </c>
+      <c r="F18" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="50">
+        <f t="shared" si="0"/>
+        <v>199.5</v>
+      </c>
+      <c r="I18" s="50">
+        <f t="shared" si="1"/>
+        <v>199.5</v>
+      </c>
+      <c r="J18" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K18" s="33">
+        <v>582970</v>
+      </c>
+      <c r="L18" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="M18" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="N18" s="45">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="O18" s="45">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="P18" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q18" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="31">
+        <v>130</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33">
+        <v>4238</v>
+      </c>
+      <c r="E19" s="49">
+        <f t="shared" si="7"/>
+        <v>65.2</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="50">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="I19" s="50">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="J19" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K19" s="33">
+        <v>739460</v>
+      </c>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q19" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="33">
+        <v>8000</v>
+      </c>
+      <c r="C20" s="31">
+        <v>540</v>
+      </c>
+      <c r="D20" s="33">
+        <v>7845120</v>
+      </c>
+      <c r="E20" s="49">
+        <f t="shared" si="7"/>
+        <v>1961.28</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="50">
+        <f t="shared" si="0"/>
+        <v>8560</v>
+      </c>
+      <c r="I20" s="50">
+        <f t="shared" si="1"/>
+        <v>8560</v>
+      </c>
+      <c r="J20" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K20" s="34">
+        <v>359571000</v>
+      </c>
+      <c r="L20" s="43">
+        <v>20</v>
+      </c>
+      <c r="M20" s="43">
+        <v>40</v>
+      </c>
+      <c r="N20" s="45">
+        <f t="shared" si="3"/>
+        <v>160000</v>
+      </c>
+      <c r="O20" s="45">
+        <f t="shared" si="4"/>
+        <v>320000</v>
+      </c>
+      <c r="P20" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q20" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="31">
+        <v>150</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31">
+        <v>614</v>
+      </c>
+      <c r="E21" s="49">
+        <f t="shared" si="7"/>
+        <v>8.1866666666666674</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="50">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I21" s="50">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J21" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K21" s="33">
+        <v>58600</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q21" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="31">
+        <v>300</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33">
+        <v>2741</v>
+      </c>
+      <c r="E22" s="49">
+        <f t="shared" si="7"/>
+        <v>18.273333333333333</v>
+      </c>
+      <c r="F22" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="50">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="I22" s="50">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="J22" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K22" s="33">
+        <v>107140</v>
+      </c>
+      <c r="L22" s="43">
+        <v>1</v>
+      </c>
+      <c r="M22" s="42"/>
+      <c r="N22" s="45">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="O22" s="45">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="P22" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q22" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="31">
+        <v>670</v>
+      </c>
+      <c r="C23" s="31">
+        <v>180</v>
+      </c>
+      <c r="D23" s="33">
+        <v>12376</v>
+      </c>
+      <c r="E23" s="49">
+        <f t="shared" ref="E23" si="8">IF((B23&gt;0),(D23/(B23/2)),0)</f>
+        <v>36.943283582089549</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="50">
+        <f t="shared" ref="H23" si="9">(F23*(B23/2)+B23)</f>
+        <v>670</v>
+      </c>
+      <c r="I23" s="50">
+        <f t="shared" ref="I23" si="10">IF(G23&gt;=F23,SUM(G23*(B23/2)+B23),H23)</f>
+        <v>670</v>
+      </c>
+      <c r="J23" s="44" t="str">
+        <f t="shared" ref="J23" si="11">IF(H23&lt;=B23+C23,"Yes","-")</f>
+        <v>Yes</v>
+      </c>
+      <c r="K23" s="33">
+        <v>187500</v>
+      </c>
+      <c r="L23" s="43"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="45">
+        <f t="shared" ref="N23" si="12">L23*B23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="45">
+        <f t="shared" ref="O23" si="13">IF((M23*B23&gt;=N23),M23*B23,N23)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="44" t="str">
+        <f t="shared" ref="P23" si="14">IF(SUM(H23-(N23/2))&lt;=B23+C23,"Yes","-")</f>
+        <v>Yes</v>
+      </c>
+      <c r="Q23" s="44" t="str">
+        <f t="shared" ref="Q23" si="15">IF(SUM(I23-(O23/2))&lt;=B23+C23,"Yes","-")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="31">
+        <v>750</v>
+      </c>
+      <c r="C24" s="31">
+        <v>90</v>
+      </c>
+      <c r="D24" s="33">
+        <v>19297</v>
+      </c>
+      <c r="E24" s="49">
+        <f t="shared" si="7"/>
+        <v>51.458666666666666</v>
+      </c>
+      <c r="F24" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="50">
+        <f t="shared" si="0"/>
+        <v>843.75</v>
+      </c>
+      <c r="I24" s="50">
+        <f t="shared" si="1"/>
+        <v>843.75</v>
+      </c>
+      <c r="J24" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K24" s="33">
+        <v>309380</v>
+      </c>
+      <c r="L24" s="43">
+        <v>1</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="45">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="O24" s="45">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="P24" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q24" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="31">
+        <v>500</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33">
+        <v>26558</v>
+      </c>
+      <c r="E25" s="49">
+        <f t="shared" si="7"/>
+        <v>106.232</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="50">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="I25" s="50">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="J25" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K25" s="33">
+        <v>575680</v>
+      </c>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q25" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="31">
+        <v>450</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33">
+        <v>469439</v>
+      </c>
+      <c r="E26" s="49">
+        <f t="shared" si="7"/>
+        <v>2086.3955555555553</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="50">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="I26" s="50">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="J26" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K26" s="34">
+        <v>527129000</v>
+      </c>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q26" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="31">
+        <v>600</v>
+      </c>
+      <c r="C27" s="31">
+        <v>80</v>
+      </c>
+      <c r="D27" s="33">
+        <v>612195</v>
+      </c>
+      <c r="E27" s="49">
+        <f t="shared" si="7"/>
+        <v>2040.65</v>
+      </c>
+      <c r="F27" s="43">
+        <v>0.27</v>
+      </c>
+      <c r="G27" s="43">
+        <v>10</v>
+      </c>
+      <c r="H27" s="50">
+        <f t="shared" si="0"/>
+        <v>681</v>
+      </c>
+      <c r="I27" s="50">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="J27" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K27" s="34">
+        <v>471171300</v>
+      </c>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Q27" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="31">
+        <v>200</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33">
+        <v>7782</v>
+      </c>
+      <c r="E28" s="49">
+        <f t="shared" si="7"/>
+        <v>77.819999999999993</v>
+      </c>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="50">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I28" s="50">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J28" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K28" s="33">
+        <v>31800</v>
+      </c>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q28" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="31">
+        <v>10</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="31">
+        <v>544</v>
+      </c>
+      <c r="E29" s="49">
+        <f t="shared" si="7"/>
+        <v>108.8</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I29" s="50">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K29" s="33">
+        <v>64670</v>
+      </c>
+      <c r="L29" s="43">
+        <v>20</v>
+      </c>
+      <c r="M29" s="43">
+        <v>40</v>
+      </c>
+      <c r="N29" s="45">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="O29" s="45">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="P29" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q29" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="33">
+        <v>3600</v>
+      </c>
+      <c r="C30" s="31">
+        <v>200</v>
+      </c>
+      <c r="D30" s="33">
+        <v>20213317</v>
+      </c>
+      <c r="E30" s="49">
+        <f t="shared" si="7"/>
+        <v>11229.620555555555</v>
+      </c>
+      <c r="F30" s="43">
+        <v>0.12</v>
+      </c>
+      <c r="G30" s="42"/>
+      <c r="H30" s="50">
+        <f t="shared" si="0"/>
+        <v>3816</v>
+      </c>
+      <c r="I30" s="50">
+        <f t="shared" si="1"/>
+        <v>3816</v>
+      </c>
+      <c r="J30" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K30" s="34">
+        <v>1712000000</v>
+      </c>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="Q30" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="31">
+        <v>320</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33">
+        <v>2616</v>
+      </c>
+      <c r="E31" s="49">
+        <f t="shared" si="7"/>
+        <v>16.350000000000001</v>
+      </c>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="50">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="I31" s="50">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="J31" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K31" s="33">
+        <v>55880</v>
+      </c>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q31" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="31">
+        <v>700</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="33">
+        <v>15914</v>
+      </c>
+      <c r="E32" s="49">
+        <f t="shared" si="7"/>
+        <v>45.46857142857143</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="50">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="I32" s="50">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="J32" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K32" s="33">
+        <v>125980</v>
+      </c>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q32" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="31">
+        <v>110</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33">
+        <v>9653</v>
+      </c>
+      <c r="E33" s="49">
+        <f t="shared" si="7"/>
+        <v>175.5090909090909</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="50">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="I33" s="50">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="J33" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="K33" s="33">
+        <v>751900</v>
+      </c>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>Yes</v>
+      </c>
+      <c r="Q33" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/RR-ISRU.xlsx
+++ b/RR-ISRU.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea0078844dcdb2e4/Public/KSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadon\Documents\GitHub\RationalResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="4"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="molar Mass" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jadon Wade</author>
+  </authors>
+  <commentList>
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nuclear salt water</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Default. Bodies of water are not readily so pure.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="154">
   <si>
     <t>Resource</t>
   </si>
@@ -483,6 +541,21 @@
   </si>
   <si>
     <t>Huygen</t>
+  </si>
+  <si>
+    <t>Lava</t>
+  </si>
+  <si>
+    <t>Gas (Class2)</t>
+  </si>
+  <si>
+    <t>Gas (Class3)</t>
+  </si>
+  <si>
+    <t>Ice-Water (Thin)</t>
+  </si>
+  <si>
+    <t>Ice-Water (Thick)</t>
   </si>
 </sst>
 </file>
@@ -496,9 +569,9 @@
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
     <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,14 +629,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
@@ -615,8 +680,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +742,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -691,14 +794,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,40 +862,40 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyAlignment="1">
@@ -804,43 +906,45 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="43" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="16" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2037,7 +2141,1119 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N23" sqref="N23"/>
+      <selection pane="topRight" activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="8" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="51">
+        <f>SUM(B5:B24)</f>
+        <v>100</v>
+      </c>
+      <c r="C3" s="51">
+        <f t="shared" ref="C3:M3" si="0">SUM(C5:C24)</f>
+        <v>95</v>
+      </c>
+      <c r="D3" s="51">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="E3" s="51">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="F3" s="51">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="G3" s="51">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="H3" s="51">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="K3" s="51">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="L3" s="51">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="M3" s="51">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>29</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="51">
+        <f>SUM(B29:B42)</f>
+        <v>93</v>
+      </c>
+      <c r="C27" s="51">
+        <f t="shared" ref="C27:M27" si="1">SUM(C29:C42)</f>
+        <v>84</v>
+      </c>
+      <c r="D27" s="51">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="E27" s="51">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="F27" s="51">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G27" s="51">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="H27" s="51">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="K27" s="51">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="L27" s="51">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="M27" s="51">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="M31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>15</v>
+      </c>
+      <c r="M34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>28</v>
+      </c>
+      <c r="F40">
+        <v>22</v>
+      </c>
+      <c r="G40">
+        <v>13</v>
+      </c>
+      <c r="H40">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>42</v>
+      </c>
+      <c r="K40">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>18</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2045,2479 +3261,1088 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="48" t="s">
+      <c r="B2" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="51">
+        <f>SUM(B5:B10)</f>
+        <v>95</v>
+      </c>
+      <c r="C3" s="51">
+        <f t="shared" ref="C3:H3" si="0">SUM(C5:C10)</f>
+        <v>95</v>
+      </c>
+      <c r="D3" s="51">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E3" s="51">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F3" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="H6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="H7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8">
+        <v>85</v>
+      </c>
+      <c r="F8" s="52"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="52"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="52"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="51">
+        <f>SUM(B15:B22)</f>
+        <v>97</v>
+      </c>
+      <c r="C13" s="51">
+        <f t="shared" ref="C13:H13" si="1">SUM(C15:C22)</f>
+        <v>95</v>
+      </c>
+      <c r="D13" s="51">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="E13" s="51">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
         <v>65</v>
       </c>
-      <c r="H2" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="48" t="s">
+      <c r="H16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>85</v>
+      </c>
+      <c r="H18">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="48">
-        <v>92</v>
-      </c>
-      <c r="C3" s="48">
-        <v>88</v>
-      </c>
-      <c r="D3" s="48">
-        <v>95</v>
-      </c>
-      <c r="E3" s="48">
-        <v>94</v>
-      </c>
-      <c r="F3" s="48">
-        <v>92</v>
-      </c>
-      <c r="G3" s="48">
-        <v>93</v>
-      </c>
-      <c r="H3" s="48">
-        <v>95</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48">
-        <v>95</v>
-      </c>
-      <c r="K3" s="48">
-        <v>96</v>
-      </c>
-      <c r="L3" s="48">
-        <v>97</v>
-      </c>
-      <c r="M3" s="48">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48">
-        <v>9</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48">
-        <v>13</v>
-      </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
-      <c r="F6" s="48">
-        <v>9</v>
-      </c>
-      <c r="G6" s="48">
-        <v>10</v>
-      </c>
-      <c r="H6" s="48">
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48">
-        <v>5</v>
-      </c>
-      <c r="F7" s="48">
-        <v>4</v>
-      </c>
-      <c r="G7" s="48">
-        <v>5</v>
-      </c>
-      <c r="H7" s="48">
-        <v>4</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="48">
-        <v>4</v>
-      </c>
-      <c r="C8" s="48">
-        <v>4</v>
-      </c>
-      <c r="D8" s="48">
-        <v>5</v>
-      </c>
-      <c r="E8" s="48">
+      <c r="E19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48">
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="H8" s="48">
-        <v>5</v>
-      </c>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48">
-        <v>6</v>
-      </c>
-      <c r="K8" s="48">
+      <c r="H22">
         <v>3</v>
-      </c>
-      <c r="L8" s="48">
-        <v>3</v>
-      </c>
-      <c r="M8" s="48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="48">
-        <v>7</v>
-      </c>
-      <c r="C9" s="48">
-        <v>5</v>
-      </c>
-      <c r="D9" s="48">
-        <v>5</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48">
-        <v>3</v>
-      </c>
-      <c r="K9" s="48">
-        <v>7</v>
-      </c>
-      <c r="L9" s="48">
-        <v>3</v>
-      </c>
-      <c r="M9" s="48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="48">
-        <v>7</v>
-      </c>
-      <c r="C10" s="48">
-        <v>3</v>
-      </c>
-      <c r="D10" s="48">
-        <v>3</v>
-      </c>
-      <c r="E10" s="48">
-        <v>18</v>
-      </c>
-      <c r="F10" s="48">
-        <v>20</v>
-      </c>
-      <c r="G10" s="48">
-        <v>18</v>
-      </c>
-      <c r="H10" s="48">
-        <v>5</v>
-      </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48">
-        <v>6</v>
-      </c>
-      <c r="K10" s="48">
-        <v>3</v>
-      </c>
-      <c r="L10" s="48">
-        <v>15</v>
-      </c>
-      <c r="M10" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="48">
-        <v>7</v>
-      </c>
-      <c r="C11" s="48">
-        <v>4</v>
-      </c>
-      <c r="D11" s="48">
-        <v>9</v>
-      </c>
-      <c r="E11" s="48">
-        <v>3</v>
-      </c>
-      <c r="F11" s="48">
-        <v>2</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48">
-        <v>6</v>
-      </c>
-      <c r="K11" s="48">
-        <v>3</v>
-      </c>
-      <c r="L11" s="48">
-        <v>3</v>
-      </c>
-      <c r="M11" s="48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48">
-        <v>2</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48">
-        <v>10</v>
-      </c>
-      <c r="H12" s="48">
-        <v>5</v>
-      </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48">
-        <v>6</v>
-      </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="48">
-        <v>7</v>
-      </c>
-      <c r="C13" s="48">
-        <v>4</v>
-      </c>
-      <c r="D13" s="48">
-        <v>5</v>
-      </c>
-      <c r="E13" s="48">
-        <v>9</v>
-      </c>
-      <c r="F13" s="48">
-        <v>9</v>
-      </c>
-      <c r="G13" s="48">
-        <v>10</v>
-      </c>
-      <c r="H13" s="48">
-        <v>5</v>
-      </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48">
-        <v>10</v>
-      </c>
-      <c r="K13" s="48">
-        <v>7</v>
-      </c>
-      <c r="L13" s="48">
-        <v>10</v>
-      </c>
-      <c r="M13" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48">
-        <v>3</v>
-      </c>
-      <c r="H15" s="48">
-        <v>30</v>
-      </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48">
-        <v>30</v>
-      </c>
-      <c r="M15" s="48"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="48">
-        <v>4</v>
-      </c>
-      <c r="C16" s="48">
-        <v>5</v>
-      </c>
-      <c r="D16" s="48">
-        <v>3</v>
-      </c>
-      <c r="E16" s="48">
-        <v>5</v>
-      </c>
-      <c r="F16" s="48">
-        <v>4</v>
-      </c>
-      <c r="G16" s="48">
-        <v>3</v>
-      </c>
-      <c r="H16" s="48">
-        <v>4</v>
-      </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48">
-        <v>10</v>
-      </c>
-      <c r="K16" s="48">
-        <v>3</v>
-      </c>
-      <c r="L16" s="48">
-        <v>3</v>
-      </c>
-      <c r="M16" s="48"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48">
-        <v>9</v>
-      </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48">
-        <v>30</v>
-      </c>
-      <c r="L17" s="48">
-        <v>15</v>
-      </c>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="48">
-        <v>5</v>
-      </c>
-      <c r="C18" s="48">
-        <v>3</v>
-      </c>
-      <c r="D18" s="48">
-        <v>15</v>
-      </c>
-      <c r="E18" s="48">
-        <v>3</v>
-      </c>
-      <c r="F18" s="48">
-        <v>2</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48">
-        <v>3</v>
-      </c>
-      <c r="K18" s="48">
-        <v>7</v>
-      </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="48">
-        <v>18</v>
-      </c>
-      <c r="C19" s="48">
-        <v>18</v>
-      </c>
-      <c r="D19" s="48">
-        <v>18</v>
-      </c>
-      <c r="E19" s="48">
-        <v>18</v>
-      </c>
-      <c r="F19" s="48">
-        <v>9</v>
-      </c>
-      <c r="G19" s="48">
-        <v>5</v>
-      </c>
-      <c r="H19" s="48">
-        <v>4</v>
-      </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48">
-        <v>30</v>
-      </c>
-      <c r="K19" s="48">
-        <v>7</v>
-      </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="48">
-        <v>18</v>
-      </c>
-      <c r="C20" s="48">
-        <v>30</v>
-      </c>
-      <c r="D20" s="48">
-        <v>5</v>
-      </c>
-      <c r="E20" s="48">
-        <v>5</v>
-      </c>
-      <c r="F20" s="48">
-        <v>9</v>
-      </c>
-      <c r="G20" s="48">
-        <v>5</v>
-      </c>
-      <c r="H20" s="48">
-        <v>5</v>
-      </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48">
-        <v>6</v>
-      </c>
-      <c r="K20" s="48">
-        <v>7</v>
-      </c>
-      <c r="L20" s="48">
-        <v>10</v>
-      </c>
-      <c r="M20" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="48">
-        <v>7</v>
-      </c>
-      <c r="C21" s="48">
-        <v>6</v>
-      </c>
-      <c r="D21" s="48">
-        <v>3</v>
-      </c>
-      <c r="E21" s="48">
-        <v>5</v>
-      </c>
-      <c r="F21" s="48">
-        <v>4</v>
-      </c>
-      <c r="G21" s="48">
-        <v>3</v>
-      </c>
-      <c r="H21" s="48">
-        <v>5</v>
-      </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48">
-        <v>6</v>
-      </c>
-      <c r="K21" s="48">
-        <v>3</v>
-      </c>
-      <c r="L21" s="48">
-        <v>5</v>
-      </c>
-      <c r="M21" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="48">
-        <v>4</v>
-      </c>
-      <c r="C22" s="48">
-        <v>2</v>
-      </c>
-      <c r="D22" s="48">
-        <v>15</v>
-      </c>
-      <c r="E22" s="48">
-        <v>3</v>
-      </c>
-      <c r="F22" s="48">
-        <v>2</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48">
-        <v>3</v>
-      </c>
-      <c r="K22" s="48">
-        <v>3</v>
-      </c>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="48">
-        <v>4</v>
-      </c>
-      <c r="C23" s="48">
-        <v>2</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48">
-        <v>5</v>
-      </c>
-      <c r="F23" s="48">
-        <v>18</v>
-      </c>
-      <c r="G23" s="48">
-        <v>18</v>
-      </c>
-      <c r="H23" s="48">
-        <v>18</v>
-      </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="48">
-        <v>93</v>
-      </c>
-      <c r="C27" s="48">
-        <v>84</v>
-      </c>
-      <c r="D27" s="48">
-        <v>95</v>
-      </c>
-      <c r="E27" s="48">
-        <v>84</v>
-      </c>
-      <c r="F27" s="48">
-        <v>90</v>
-      </c>
-      <c r="G27" s="48">
-        <v>75</v>
-      </c>
-      <c r="H27" s="48">
-        <v>60</v>
-      </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48">
-        <v>98</v>
-      </c>
-      <c r="K27" s="48">
-        <v>88</v>
-      </c>
-      <c r="L27" s="48">
-        <v>76</v>
-      </c>
-      <c r="M27" s="48">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="48">
-        <v>4</v>
-      </c>
-      <c r="C29" s="48">
-        <v>2</v>
-      </c>
-      <c r="D29" s="48">
-        <v>15</v>
-      </c>
-      <c r="E29" s="48">
-        <v>3</v>
-      </c>
-      <c r="F29" s="48">
-        <v>2</v>
-      </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48">
-        <v>3</v>
-      </c>
-      <c r="K29" s="48">
-        <v>3</v>
-      </c>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="48">
-        <v>4</v>
-      </c>
-      <c r="C30" s="48">
-        <v>4</v>
-      </c>
-      <c r="D30" s="48">
-        <v>5</v>
-      </c>
-      <c r="E30" s="48">
-        <v>3</v>
-      </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48">
-        <v>3</v>
-      </c>
-      <c r="H30" s="48">
-        <v>5</v>
-      </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48">
-        <v>6</v>
-      </c>
-      <c r="K30" s="48">
-        <v>3</v>
-      </c>
-      <c r="L30" s="48">
-        <v>3</v>
-      </c>
-      <c r="M30" s="48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="48">
-        <v>4</v>
-      </c>
-      <c r="C31" s="48">
-        <v>4</v>
-      </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48">
-        <v>5</v>
-      </c>
-      <c r="F31" s="48">
-        <v>18</v>
-      </c>
-      <c r="G31" s="48">
-        <v>18</v>
-      </c>
-      <c r="H31" s="48">
-        <v>18</v>
-      </c>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="48">
-        <v>4</v>
-      </c>
-      <c r="C32" s="48">
-        <v>4</v>
-      </c>
-      <c r="D32" s="48">
-        <v>5</v>
-      </c>
-      <c r="E32" s="48">
-        <v>3</v>
-      </c>
-      <c r="F32" s="48">
-        <v>2</v>
-      </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48">
-        <v>6</v>
-      </c>
-      <c r="K32" s="48">
-        <v>4</v>
-      </c>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48">
-        <v>2</v>
-      </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48">
-        <v>2</v>
-      </c>
-      <c r="F33" s="48">
-        <v>5</v>
-      </c>
-      <c r="G33" s="48">
-        <v>10</v>
-      </c>
-      <c r="H33" s="48">
-        <v>5</v>
-      </c>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48">
-        <v>6</v>
-      </c>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="48">
-        <v>7</v>
-      </c>
-      <c r="C34" s="48">
-        <v>4</v>
-      </c>
-      <c r="D34" s="48">
-        <v>18</v>
-      </c>
-      <c r="E34" s="48">
-        <v>3</v>
-      </c>
-      <c r="F34" s="48">
-        <v>2</v>
-      </c>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48">
-        <v>6</v>
-      </c>
-      <c r="K34" s="48">
-        <v>15</v>
-      </c>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="48">
-        <v>7</v>
-      </c>
-      <c r="C35" s="48">
-        <v>18</v>
-      </c>
-      <c r="D35" s="48">
-        <v>5</v>
-      </c>
-      <c r="E35" s="48">
-        <v>9</v>
-      </c>
-      <c r="F35" s="48">
-        <v>9</v>
-      </c>
-      <c r="G35" s="48">
-        <v>10</v>
-      </c>
-      <c r="H35" s="48">
-        <v>5</v>
-      </c>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48">
-        <v>10</v>
-      </c>
-      <c r="K35" s="48">
-        <v>7</v>
-      </c>
-      <c r="L35" s="48">
-        <v>10</v>
-      </c>
-      <c r="M35" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="48">
-        <v>4</v>
-      </c>
-      <c r="C36" s="48">
-        <v>3</v>
-      </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48">
-        <v>2</v>
-      </c>
-      <c r="F36" s="48">
-        <v>4</v>
-      </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48">
-        <v>4</v>
-      </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48">
-        <v>15</v>
-      </c>
-      <c r="M36" s="48"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="48">
-        <v>4</v>
-      </c>
-      <c r="C37" s="48">
-        <v>5</v>
-      </c>
-      <c r="D37" s="48">
-        <v>3</v>
-      </c>
-      <c r="E37" s="48">
-        <v>5</v>
-      </c>
-      <c r="F37" s="48">
-        <v>4</v>
-      </c>
-      <c r="G37" s="48">
-        <v>3</v>
-      </c>
-      <c r="H37" s="48">
-        <v>4</v>
-      </c>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48">
-        <v>10</v>
-      </c>
-      <c r="K37" s="48">
-        <v>3</v>
-      </c>
-      <c r="L37" s="48">
-        <v>3</v>
-      </c>
-      <c r="M37" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48">
-        <v>30</v>
-      </c>
-      <c r="L38" s="48">
-        <v>15</v>
-      </c>
-      <c r="M38" s="48"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="48">
-        <v>5</v>
-      </c>
-      <c r="C39" s="48">
-        <v>3</v>
-      </c>
-      <c r="D39" s="48">
-        <v>15</v>
-      </c>
-      <c r="E39" s="48">
-        <v>3</v>
-      </c>
-      <c r="F39" s="48">
-        <v>2</v>
-      </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48">
-        <v>3</v>
-      </c>
-      <c r="K39" s="48">
-        <v>7</v>
-      </c>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="48">
-        <v>43</v>
-      </c>
-      <c r="C40" s="48">
-        <v>30</v>
-      </c>
-      <c r="D40" s="48">
-        <v>26</v>
-      </c>
-      <c r="E40" s="48">
-        <v>28</v>
-      </c>
-      <c r="F40" s="48">
-        <v>22</v>
-      </c>
-      <c r="G40" s="48">
-        <v>13</v>
-      </c>
-      <c r="H40" s="48">
-        <v>14</v>
-      </c>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48">
-        <v>42</v>
-      </c>
-      <c r="K40" s="48">
-        <v>13</v>
-      </c>
-      <c r="L40" s="48">
-        <v>15</v>
-      </c>
-      <c r="M40" s="48">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="48">
-        <v>7</v>
-      </c>
-      <c r="C42" s="48">
-        <v>5</v>
-      </c>
-      <c r="D42" s="48">
-        <v>3</v>
-      </c>
-      <c r="E42" s="48">
-        <v>18</v>
-      </c>
-      <c r="F42" s="48">
-        <v>20</v>
-      </c>
-      <c r="G42" s="48">
-        <v>18</v>
-      </c>
-      <c r="H42" s="48">
-        <v>5</v>
-      </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48">
-        <v>6</v>
-      </c>
-      <c r="K42" s="48">
-        <v>3</v>
-      </c>
-      <c r="L42" s="48">
-        <v>15</v>
-      </c>
-      <c r="M42" s="48">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G22" sqref="A2:G22"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="D2" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="51">
+        <f>SUM(B5:B18)</f>
+        <v>93</v>
+      </c>
+      <c r="C3" s="51">
+        <f>SUM(C5:C18)</f>
+        <v>92</v>
+      </c>
+      <c r="D3" s="51">
+        <f>SUM(D5:D18)</f>
+        <v>92</v>
+      </c>
+      <c r="E3" s="51">
+        <f>SUM(E5:E18)</f>
+        <v>93</v>
+      </c>
+      <c r="F3" s="51">
+        <f>SUM(F5:F18)</f>
+        <v>92</v>
+      </c>
+      <c r="G3" s="51">
+        <f>SUM(G5:G18)</f>
+        <v>90</v>
+      </c>
+      <c r="H3" s="51">
+        <f>SUM(H5:H18)</f>
+        <v>92</v>
+      </c>
+      <c r="I3" s="51">
+        <f>SUM(I5:I18)</f>
+        <v>95</v>
+      </c>
+      <c r="J3" s="51">
+        <f>SUM(J5:J18)</f>
+        <v>93</v>
+      </c>
+      <c r="K3" s="53">
+        <f>SUM(K5:K18)</f>
+        <v>98</v>
+      </c>
+      <c r="L3" s="53">
+        <f>SUM(L5:L18)</f>
+        <v>99</v>
+      </c>
+      <c r="M3" s="51">
+        <f>SUM(M5:M18)</f>
+        <v>100</v>
+      </c>
+      <c r="N3" s="51">
+        <f>SUM(N5:N18)</f>
+        <v>100</v>
+      </c>
+      <c r="O3" s="51">
+        <f>SUM(O5:O18)</f>
+        <v>100</v>
+      </c>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51">
+        <f>SUM(Q5:Q18)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" s="52">
+        <v>10</v>
+      </c>
+      <c r="L10" s="52">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>74</v>
+      </c>
+      <c r="J11">
+        <v>74</v>
+      </c>
+      <c r="K11" s="52">
+        <v>78</v>
+      </c>
+      <c r="L11" s="52">
+        <v>78</v>
+      </c>
+      <c r="M11">
+        <v>70</v>
+      </c>
+      <c r="N11">
+        <v>75</v>
+      </c>
+      <c r="O11">
+        <v>85</v>
+      </c>
+      <c r="Q11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" s="52">
+        <v>4</v>
+      </c>
+      <c r="L13" s="52">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+      <c r="K14" s="52">
+        <v>1</v>
+      </c>
+      <c r="L14" s="52">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="52">
+        <v>1</v>
+      </c>
+      <c r="L15" s="52">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="52">
+        <v>4</v>
+      </c>
+      <c r="L17" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B21" s="51">
+        <f>SUM(B23:B31)</f>
+        <v>10</v>
+      </c>
+      <c r="C21" s="51">
+        <f t="shared" ref="C21:Q21" si="0">SUM(C23:C31)</f>
+        <v>9</v>
+      </c>
+      <c r="D21" s="51">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E21" s="51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="51">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G21" s="51">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H21" s="51">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="51">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="J21" s="51">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="K21" s="53">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="L21" s="53">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="M21" s="51">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="C3" s="48">
+      <c r="N21" s="51">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="D3" s="48">
-        <v>95</v>
-      </c>
-      <c r="E3" s="48">
-        <v>95</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="48">
+      <c r="O21" s="51">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52">
         <v>2</v>
       </c>
-      <c r="C5" s="48">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25" s="52">
+        <v>4</v>
+      </c>
+      <c r="L25" s="52">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="52">
+        <v>1</v>
+      </c>
+      <c r="L26" s="52">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="48">
+      <c r="K27" s="52">
+        <v>1</v>
+      </c>
+      <c r="L27" s="52">
+        <v>1</v>
+      </c>
+      <c r="M27">
         <v>2</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>74</v>
+      </c>
+      <c r="J28">
+        <v>70</v>
+      </c>
+      <c r="K28" s="52">
+        <v>78</v>
+      </c>
+      <c r="L28" s="52">
+        <v>78</v>
+      </c>
+      <c r="M28">
+        <v>70</v>
+      </c>
+      <c r="N28">
+        <v>75</v>
+      </c>
+      <c r="O28">
+        <v>85</v>
+      </c>
+      <c r="Q28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29">
         <v>5</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="48">
-        <v>1</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48">
-        <v>85</v>
-      </c>
-      <c r="E7" s="48">
+      <c r="N29">
         <v>2</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48">
-        <v>85</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" s="52">
+        <v>4</v>
+      </c>
+      <c r="L30" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31">
         <v>3</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="48">
-        <v>90</v>
-      </c>
-      <c r="C10" s="48">
-        <v>10</v>
-      </c>
-      <c r="D10" s="48">
-        <v>5</v>
-      </c>
-      <c r="E10" s="48">
-        <v>5</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="48">
-        <v>97</v>
-      </c>
-      <c r="C13" s="48">
-        <v>95</v>
-      </c>
-      <c r="D13" s="48">
-        <v>93</v>
-      </c>
-      <c r="E13" s="48">
-        <v>93</v>
-      </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="48">
-        <v>90</v>
-      </c>
-      <c r="C16" s="48">
-        <v>50</v>
-      </c>
-      <c r="D16" s="48">
-        <v>5</v>
-      </c>
-      <c r="E16" s="48">
-        <v>65</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="48">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48">
-        <v>85</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="48">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31" s="52">
+        <v>1</v>
+      </c>
+      <c r="L31" s="52">
         <v>3</v>
       </c>
-      <c r="C19" s="48">
-        <v>5</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48">
-        <v>25</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="48">
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
         <v>2</v>
       </c>
-      <c r="C22" s="48">
-        <v>40</v>
-      </c>
-      <c r="D22" s="48">
-        <v>3</v>
-      </c>
-      <c r="E22" s="48">
-        <v>3</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48">
-        <v>3</v>
+      <c r="Q31">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:O30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="48">
-        <v>93</v>
-      </c>
-      <c r="C3" s="48">
-        <v>92</v>
-      </c>
-      <c r="D3" s="48">
-        <v>92</v>
-      </c>
-      <c r="E3" s="48">
-        <v>93</v>
-      </c>
-      <c r="F3" s="48">
-        <v>92</v>
-      </c>
-      <c r="G3" s="48">
-        <v>90</v>
-      </c>
-      <c r="H3" s="48">
-        <v>92</v>
-      </c>
-      <c r="I3" s="48">
-        <v>95</v>
-      </c>
-      <c r="J3" s="48">
-        <v>93</v>
-      </c>
-      <c r="K3" s="48">
-        <v>100</v>
-      </c>
-      <c r="L3" s="48">
-        <v>100</v>
-      </c>
-      <c r="M3" s="48">
-        <v>100</v>
-      </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48">
-        <v>6</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48">
-        <v>2</v>
-      </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48">
-        <v>4</v>
-      </c>
-      <c r="J5" s="48">
-        <v>2</v>
-      </c>
-      <c r="K5" s="48">
-        <v>1</v>
-      </c>
-      <c r="L5" s="48">
-        <v>1</v>
-      </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48">
-        <v>3</v>
-      </c>
-      <c r="L6" s="48">
-        <v>5</v>
-      </c>
-      <c r="M6" s="48">
-        <v>9</v>
-      </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48">
-        <v>1</v>
-      </c>
-      <c r="L7" s="48">
-        <v>1</v>
-      </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="48">
-        <v>80</v>
-      </c>
-      <c r="C8" s="48">
-        <v>1</v>
-      </c>
-      <c r="D8" s="48">
-        <v>2</v>
-      </c>
-      <c r="E8" s="48">
-        <v>91</v>
-      </c>
-      <c r="F8" s="48">
-        <v>6</v>
-      </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48">
-        <v>2</v>
-      </c>
-      <c r="J8" s="48">
-        <v>1</v>
-      </c>
-      <c r="K8" s="48">
-        <v>1</v>
-      </c>
-      <c r="L8" s="48">
-        <v>1</v>
-      </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48">
-        <v>2</v>
-      </c>
-      <c r="L9" s="48">
-        <v>3</v>
-      </c>
-      <c r="M9" s="48">
-        <v>1</v>
-      </c>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48">
-        <v>12</v>
-      </c>
-      <c r="J10" s="48">
-        <v>10</v>
-      </c>
-      <c r="K10" s="48">
-        <v>7</v>
-      </c>
-      <c r="L10" s="48">
-        <v>7</v>
-      </c>
-      <c r="M10" s="48">
-        <v>5</v>
-      </c>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="48">
-        <v>2</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48">
-        <v>2</v>
-      </c>
-      <c r="G11" s="48">
-        <v>4</v>
-      </c>
-      <c r="H11" s="48">
-        <v>2</v>
-      </c>
-      <c r="I11" s="48">
-        <v>74</v>
-      </c>
-      <c r="J11" s="48">
-        <v>74</v>
-      </c>
-      <c r="K11" s="48">
-        <v>70</v>
-      </c>
-      <c r="L11" s="48">
-        <v>75</v>
-      </c>
-      <c r="M11" s="48">
-        <v>85</v>
-      </c>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48">
-        <v>8</v>
-      </c>
-      <c r="L12" s="48">
-        <v>2</v>
-      </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48">
-        <v>4</v>
-      </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48">
-        <v>6</v>
-      </c>
-      <c r="G13" s="48">
-        <v>1</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48">
-        <v>1</v>
-      </c>
-      <c r="J13" s="48">
-        <v>4</v>
-      </c>
-      <c r="K13" s="48">
-        <v>1</v>
-      </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="48">
-        <v>10</v>
-      </c>
-      <c r="C14" s="48">
-        <v>74</v>
-      </c>
-      <c r="D14" s="48">
-        <v>80</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48">
-        <v>75</v>
-      </c>
-      <c r="G14" s="48">
-        <v>85</v>
-      </c>
-      <c r="H14" s="48">
-        <v>90</v>
-      </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48">
-        <v>2</v>
-      </c>
-      <c r="L14" s="48">
-        <v>2</v>
-      </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48">
-        <v>16</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48">
-        <v>2</v>
-      </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48">
-        <v>1</v>
-      </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48">
-        <v>2</v>
-      </c>
-      <c r="L15" s="48">
-        <v>2</v>
-      </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="48">
-        <v>1</v>
-      </c>
-      <c r="C16" s="48">
-        <v>1</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48">
-        <v>1</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48">
-        <v>1</v>
-      </c>
-      <c r="J16" s="48">
-        <v>2</v>
-      </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48">
-        <v>2</v>
-      </c>
-      <c r="L17" s="48">
-        <v>1</v>
-      </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="48">
-        <v>10</v>
-      </c>
-      <c r="C20" s="48">
-        <v>9</v>
-      </c>
-      <c r="D20" s="48">
-        <v>16</v>
-      </c>
-      <c r="E20" s="48">
-        <v>3</v>
-      </c>
-      <c r="F20" s="48">
-        <v>13</v>
-      </c>
-      <c r="G20" s="48">
-        <v>9</v>
-      </c>
-      <c r="H20" s="48">
-        <v>4</v>
-      </c>
-      <c r="I20" s="48">
-        <v>89</v>
-      </c>
-      <c r="J20" s="48">
-        <v>92</v>
-      </c>
-      <c r="K20" s="48">
-        <v>95</v>
-      </c>
-      <c r="L20" s="48">
-        <v>95</v>
-      </c>
-      <c r="M20" s="48">
-        <v>99</v>
-      </c>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48">
-        <v>1</v>
-      </c>
-      <c r="L22" s="48">
-        <v>5</v>
-      </c>
-      <c r="M22" s="48">
-        <v>9</v>
-      </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48">
-        <v>12</v>
-      </c>
-      <c r="J23" s="48">
-        <v>10</v>
-      </c>
-      <c r="K23" s="48">
-        <v>7</v>
-      </c>
-      <c r="L23" s="48">
-        <v>7</v>
-      </c>
-      <c r="M23" s="48">
-        <v>5</v>
-      </c>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="48">
-        <v>2</v>
-      </c>
-      <c r="C24" s="48">
-        <v>1</v>
-      </c>
-      <c r="D24" s="48">
-        <v>4</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48">
-        <v>6</v>
-      </c>
-      <c r="G24" s="48">
-        <v>2</v>
-      </c>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48">
-        <v>1</v>
-      </c>
-      <c r="J24" s="48">
-        <v>6</v>
-      </c>
-      <c r="K24" s="48">
-        <v>4</v>
-      </c>
-      <c r="L24" s="48">
-        <v>2</v>
-      </c>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="48">
-        <v>2</v>
-      </c>
-      <c r="C25" s="48">
-        <v>6</v>
-      </c>
-      <c r="D25" s="48">
-        <v>6</v>
-      </c>
-      <c r="E25" s="48">
-        <v>3</v>
-      </c>
-      <c r="F25" s="48">
-        <v>2</v>
-      </c>
-      <c r="G25" s="48">
-        <v>3</v>
-      </c>
-      <c r="H25" s="48">
-        <v>1</v>
-      </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48">
-        <v>2</v>
-      </c>
-      <c r="L25" s="48">
-        <v>1</v>
-      </c>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48">
-        <v>2</v>
-      </c>
-      <c r="L26" s="48">
-        <v>1</v>
-      </c>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="48">
-        <v>2</v>
-      </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48">
-        <v>2</v>
-      </c>
-      <c r="G27" s="48">
-        <v>4</v>
-      </c>
-      <c r="H27" s="48">
-        <v>2</v>
-      </c>
-      <c r="I27" s="48">
-        <v>74</v>
-      </c>
-      <c r="J27" s="48">
-        <v>70</v>
-      </c>
-      <c r="K27" s="48">
-        <v>70</v>
-      </c>
-      <c r="L27" s="48">
-        <v>75</v>
-      </c>
-      <c r="M27" s="48">
-        <v>85</v>
-      </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48">
-        <v>5</v>
-      </c>
-      <c r="L28" s="48">
-        <v>2</v>
-      </c>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="48">
-        <v>1</v>
-      </c>
-      <c r="C29" s="48">
-        <v>1</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48">
-        <v>1</v>
-      </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48">
-        <v>1</v>
-      </c>
-      <c r="J29" s="48">
-        <v>2</v>
-      </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="48">
-        <v>3</v>
-      </c>
-      <c r="C30" s="48">
-        <v>1</v>
-      </c>
-      <c r="D30" s="48">
-        <v>6</v>
-      </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48">
-        <v>2</v>
-      </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48">
-        <v>1</v>
-      </c>
-      <c r="I30" s="48">
-        <v>1</v>
-      </c>
-      <c r="J30" s="48">
-        <v>4</v>
-      </c>
-      <c r="K30" s="48">
-        <v>4</v>
-      </c>
-      <c r="L30" s="48">
-        <v>2</v>
-      </c>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4525,15 +4350,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="M21" sqref="M21"/>
+      <selection pane="topRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.5" style="41" customWidth="1"/>
+    <col min="1" max="1" width="15" style="41" customWidth="1"/>
+    <col min="2" max="4" width="12.5" style="41" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="38" customWidth="1"/>
     <col min="6" max="7" width="12.5" style="36" customWidth="1"/>
     <col min="8" max="10" width="12.5" style="38" customWidth="1"/>
@@ -4613,11 +4439,11 @@
       <c r="G2" s="43">
         <v>12</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="49">
         <f>(F2*(B2/2)+B2)</f>
         <v>966625</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="49">
         <f>IF(G2&gt;=F2,SUM(G2*(B2/2)+B2),H2)</f>
         <v>1230250</v>
       </c>
@@ -4660,17 +4486,17 @@
       <c r="D3" s="33">
         <v>26572</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <f>IF((B3&gt;0),(D3/(B3/2)),0)</f>
         <v>81.760000000000005</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
-      <c r="H3" s="50">
+      <c r="H3" s="49">
         <f t="shared" ref="H3:H33" si="0">(F3*(B3/2)+B3)</f>
         <v>650</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="49">
         <f t="shared" ref="I3:I33" si="1">IF(G3&gt;=F3,SUM(G3*(B3/2)+B3),H3)</f>
         <v>650</v>
       </c>
@@ -4713,7 +4539,7 @@
       <c r="D4" s="33">
         <v>233567</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="48">
         <f t="shared" ref="E4:E33" si="7">IF((B4&gt;0),(D4/(B4/2)),0)</f>
         <v>227.87024390243903</v>
       </c>
@@ -4721,11 +4547,11 @@
         <v>0.1</v>
       </c>
       <c r="G4" s="42"/>
-      <c r="H4" s="50">
+      <c r="H4" s="49">
         <f t="shared" si="0"/>
         <v>2152.5</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="49">
         <f t="shared" si="1"/>
         <v>2152.5</v>
       </c>
@@ -4766,17 +4592,17 @@
       <c r="D5" s="31">
         <v>366</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="48">
         <f t="shared" si="7"/>
         <v>24.4</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
-      <c r="H5" s="50">
+      <c r="H5" s="49">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="49">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4819,7 +4645,7 @@
       <c r="D6" s="33">
         <v>231588</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <f t="shared" si="7"/>
         <v>289.48500000000001</v>
       </c>
@@ -4827,11 +4653,11 @@
         <v>0.11</v>
       </c>
       <c r="G6" s="42"/>
-      <c r="H6" s="50">
+      <c r="H6" s="49">
         <f t="shared" si="0"/>
         <v>1688</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="49">
         <f t="shared" si="1"/>
         <v>1688</v>
       </c>
@@ -4874,17 +4700,17 @@
       <c r="D7" s="33">
         <v>13860</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="48">
         <f t="shared" si="7"/>
         <v>69.3</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="50">
+      <c r="H7" s="49">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="49">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
@@ -4925,17 +4751,17 @@
       <c r="D8" s="33">
         <v>8655</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="48">
         <f t="shared" si="7"/>
         <v>108.1875</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="50">
+      <c r="H8" s="49">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="49">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
@@ -4978,7 +4804,7 @@
       <c r="D9" s="33">
         <v>131664</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="48">
         <f t="shared" si="7"/>
         <v>329.16</v>
       </c>
@@ -4986,11 +4812,11 @@
         <v>0.18</v>
       </c>
       <c r="G9" s="42"/>
-      <c r="H9" s="50">
+      <c r="H9" s="49">
         <f t="shared" si="0"/>
         <v>872</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="49">
         <f t="shared" si="1"/>
         <v>872</v>
       </c>
@@ -5031,17 +4857,17 @@
       <c r="D10" s="33">
         <v>6286</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <f t="shared" si="7"/>
         <v>59.866666666666667</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="50">
+      <c r="H10" s="49">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="49">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
@@ -5082,17 +4908,17 @@
       <c r="D11" s="33">
         <v>49409</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="48">
         <f t="shared" si="7"/>
         <v>380.06923076923078</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="50">
+      <c r="H11" s="49">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="49">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
@@ -5133,17 +4959,17 @@
       <c r="D12" s="31">
         <v>244</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="48">
         <f t="shared" si="7"/>
         <v>24.4</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="50">
+      <c r="H12" s="49">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="49">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -5184,17 +5010,17 @@
       <c r="D13" s="33">
         <v>90298</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="48">
         <f t="shared" si="7"/>
         <v>501.65555555555557</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="50">
+      <c r="H13" s="49">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="49">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
@@ -5237,7 +5063,7 @@
       <c r="D14" s="33">
         <v>6745648</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="48">
         <f t="shared" si="7"/>
         <v>963.66399999999999</v>
       </c>
@@ -5245,11 +5071,11 @@
         <v>0.11</v>
       </c>
       <c r="G14" s="42"/>
-      <c r="H14" s="50">
+      <c r="H14" s="49">
         <f t="shared" si="0"/>
         <v>14770</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="49">
         <f t="shared" si="1"/>
         <v>14770</v>
       </c>
@@ -5296,7 +5122,7 @@
       <c r="D15" s="33">
         <v>9067</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="48">
         <f t="shared" si="7"/>
         <v>16.485454545454544</v>
       </c>
@@ -5304,11 +5130,11 @@
         <v>0.2</v>
       </c>
       <c r="G15" s="42"/>
-      <c r="H15" s="50">
+      <c r="H15" s="49">
         <f t="shared" si="0"/>
         <v>1210</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="49">
         <f t="shared" si="1"/>
         <v>1210</v>
       </c>
@@ -5349,17 +5175,17 @@
       <c r="D16" s="33">
         <v>5962</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="48">
         <f t="shared" si="7"/>
         <v>21.68</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="50">
+      <c r="H16" s="49">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="49">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
@@ -5402,7 +5228,7 @@
       <c r="D17" s="33">
         <v>20348</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="48">
         <f t="shared" si="7"/>
         <v>45.217777777777776</v>
       </c>
@@ -5410,11 +5236,11 @@
         <v>0.2</v>
       </c>
       <c r="G17" s="42"/>
-      <c r="H17" s="50">
+      <c r="H17" s="49">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="49">
         <f t="shared" si="1"/>
         <v>990</v>
       </c>
@@ -5457,7 +5283,7 @@
       <c r="D18" s="33">
         <v>5553</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="48">
         <f t="shared" si="7"/>
         <v>58.452631578947368</v>
       </c>
@@ -5465,11 +5291,11 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="42"/>
-      <c r="H18" s="50">
+      <c r="H18" s="49">
         <f t="shared" si="0"/>
         <v>199.5</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="49">
         <f t="shared" si="1"/>
         <v>199.5</v>
       </c>
@@ -5514,17 +5340,17 @@
       <c r="D19" s="33">
         <v>4238</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="48">
         <f t="shared" si="7"/>
         <v>65.2</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="50">
+      <c r="H19" s="49">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="I19" s="50">
+      <c r="I19" s="49">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
@@ -5567,7 +5393,7 @@
       <c r="D20" s="33">
         <v>7845120</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="48">
         <f t="shared" si="7"/>
         <v>1961.28</v>
       </c>
@@ -5575,11 +5401,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G20" s="42"/>
-      <c r="H20" s="50">
+      <c r="H20" s="49">
         <f t="shared" si="0"/>
         <v>8560</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="49">
         <f t="shared" si="1"/>
         <v>8560</v>
       </c>
@@ -5624,17 +5450,17 @@
       <c r="D21" s="31">
         <v>614</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="48">
         <f t="shared" si="7"/>
         <v>8.1866666666666674</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="H21" s="50">
+      <c r="H21" s="49">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="49">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
@@ -5675,7 +5501,7 @@
       <c r="D22" s="33">
         <v>2741</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="48">
         <f t="shared" si="7"/>
         <v>18.273333333333333</v>
       </c>
@@ -5683,11 +5509,11 @@
         <v>0.1</v>
       </c>
       <c r="G22" s="42"/>
-      <c r="H22" s="50">
+      <c r="H22" s="49">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="49">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
@@ -5732,17 +5558,17 @@
       <c r="D23" s="33">
         <v>12376</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="48">
         <f t="shared" ref="E23" si="8">IF((B23&gt;0),(D23/(B23/2)),0)</f>
         <v>36.943283582089549</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="42"/>
-      <c r="H23" s="50">
+      <c r="H23" s="49">
         <f t="shared" ref="H23" si="9">(F23*(B23/2)+B23)</f>
         <v>670</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="49">
         <f t="shared" ref="I23" si="10">IF(G23&gt;=F23,SUM(G23*(B23/2)+B23),H23)</f>
         <v>670</v>
       </c>
@@ -5785,7 +5611,7 @@
       <c r="D24" s="33">
         <v>19297</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="48">
         <f t="shared" si="7"/>
         <v>51.458666666666666</v>
       </c>
@@ -5793,11 +5619,11 @@
         <v>0.25</v>
       </c>
       <c r="G24" s="42"/>
-      <c r="H24" s="50">
+      <c r="H24" s="49">
         <f t="shared" si="0"/>
         <v>843.75</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="49">
         <f t="shared" si="1"/>
         <v>843.75</v>
       </c>
@@ -5840,17 +5666,17 @@
       <c r="D25" s="33">
         <v>26558</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="48">
         <f t="shared" si="7"/>
         <v>106.232</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
-      <c r="H25" s="50">
+      <c r="H25" s="49">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="49">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -5891,17 +5717,17 @@
       <c r="D26" s="33">
         <v>469439</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="48">
         <f t="shared" si="7"/>
         <v>2086.3955555555553</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
-      <c r="H26" s="50">
+      <c r="H26" s="49">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="49">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
@@ -5944,7 +5770,7 @@
       <c r="D27" s="33">
         <v>612195</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="48">
         <f t="shared" si="7"/>
         <v>2040.65</v>
       </c>
@@ -5954,11 +5780,11 @@
       <c r="G27" s="43">
         <v>10</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="49">
         <f t="shared" si="0"/>
         <v>681</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="49">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
@@ -5999,17 +5825,17 @@
       <c r="D28" s="33">
         <v>7782</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="48">
         <f t="shared" si="7"/>
         <v>77.819999999999993</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
-      <c r="H28" s="50">
+      <c r="H28" s="49">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="49">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
@@ -6050,17 +5876,17 @@
       <c r="D29" s="31">
         <v>544</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="48">
         <f t="shared" si="7"/>
         <v>108.8</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
-      <c r="H29" s="50">
+      <c r="H29" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="49">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -6107,7 +5933,7 @@
       <c r="D30" s="33">
         <v>20213317</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="48">
         <f t="shared" si="7"/>
         <v>11229.620555555555</v>
       </c>
@@ -6115,11 +5941,11 @@
         <v>0.12</v>
       </c>
       <c r="G30" s="42"/>
-      <c r="H30" s="50">
+      <c r="H30" s="49">
         <f t="shared" si="0"/>
         <v>3816</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30" s="49">
         <f t="shared" si="1"/>
         <v>3816</v>
       </c>
@@ -6160,17 +5986,17 @@
       <c r="D31" s="33">
         <v>2616</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="48">
         <f t="shared" si="7"/>
         <v>16.350000000000001</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
-      <c r="H31" s="50">
+      <c r="H31" s="49">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="I31" s="50">
+      <c r="I31" s="49">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
@@ -6211,17 +6037,17 @@
       <c r="D32" s="33">
         <v>15914</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="48">
         <f t="shared" si="7"/>
         <v>45.46857142857143</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
-      <c r="H32" s="50">
+      <c r="H32" s="49">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="I32" s="50">
+      <c r="I32" s="49">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
@@ -6262,17 +6088,17 @@
       <c r="D33" s="33">
         <v>9653</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="48">
         <f t="shared" si="7"/>
         <v>175.5090909090909</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
-      <c r="H33" s="50">
+      <c r="H33" s="49">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="I33" s="50">
+      <c r="I33" s="49">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>

--- a/RR-ISRU.xlsx
+++ b/RR-ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="17700" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="molar Mass" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
   <si>
     <t>Resource</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>Ice-Water (Thick)</t>
+  </si>
+  <si>
+    <t>Pb</t>
   </si>
 </sst>
 </file>
@@ -1258,11 +1261,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D25" sqref="D25"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1299,619 +1302,619 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>207.2</v>
+      </c>
+      <c r="E2" s="4">
+        <f>0.01*1000</f>
+        <v>10</v>
+      </c>
+      <c r="F2" s="9">
+        <f>C2*D2/(E2 * 1000)</f>
+        <v>2.0719999999999999E-2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
         <v>170.34</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F2" s="9">
-        <f>C2*D2/(E2 * 1000)</f>
+      <c r="F3" s="9">
+        <f>C3*D3/(E3 * 1000)</f>
         <v>3.4068000000000001E-2</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E4" s="20">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F3" s="21">
-        <f>C3*D3/(E3 * 1000)</f>
+      <c r="F4" s="21">
+        <f>C4*D4/(E4 * 1000)</f>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="4">
         <f>0.004*1000</f>
         <v>4</v>
       </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4:F34" si="0">C4*D4/(E4 * 1000)</f>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F35" si="0">C5*D5/(E5 * 1000)</f>
         <v>8.0114999999999995E-3</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
         <f>39.948*2</f>
         <v>79.896000000000001</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <f>0.000001784*1000</f>
         <v>1.784E-3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>44.784753363228702</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
         <f>131.293*2</f>
         <v>262.58600000000001</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <f>0.0001*1000</f>
         <v>0.1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>2.6258600000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
         <f>1.008*2</f>
         <v>2.016</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <f>0.0000000899*1000</f>
         <v>8.9900000000000003E-5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>22.424916573971078</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
         <f>12.011 + 16*2</f>
         <v>44.010999999999996</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <f>0.000001951*1000</f>
         <v>1.951E-3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>22.558175294720652</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <f>0.000000717*1000</f>
         <v>7.1699999999999997E-4</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>22.387726638772666</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
         <f>14.007+(1.008*3)</f>
         <v>17.030999999999999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <f>0.000000769*1000</f>
         <v>7.6899999999999994E-4</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>22.14694408322497</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <f>0.00000141*1000</f>
         <v>1.41E-3</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>22.695035460992909</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <f>0.000001251*1000</f>
         <v>1.2509999999999999E-3</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>22.393285371702639</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="8"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
         <f>(1.008*2)+16</f>
         <v>18.015999999999998</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <f>0.0001*1000</f>
         <v>0.1</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>0.18015999999999999</v>
       </c>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
         <f>1.008*2</f>
         <v>2.016</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <f>0.00007085*1000</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>2.8454481298517999E-2</v>
       </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
         <f>12.011+(16*2)</f>
         <v>44.010999999999996</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <f>0.00117325*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>3.7512039207330053E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <f>0.00042561*1000</f>
         <v>0.42560999999999999</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>3.771527924625831E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
         <f>14.007+(1.008*3)</f>
         <v>17.030999999999999</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <f>0.0007021*1000</f>
         <v>0.70209999999999995</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <f t="shared" si="0"/>
         <v>2.4257228315054839E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15">
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
         <f>16*2</f>
         <v>32</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E20" s="16">
         <f>0.001141*1000</f>
         <v>1.141</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <f t="shared" si="0"/>
         <v>2.8045574057843997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <f>0.000824907*1000</f>
         <v>0.82490700000000006</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <f t="shared" si="0"/>
         <v>3.3960191876175133E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="9"/>
-    </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
         <v>26.98</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <f>0.00277*1000</f>
         <v>2.77</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" ref="F22:F23" si="1">C22*D22/(E22 * 1000)</f>
+      <c r="F23" s="9">
+        <f t="shared" ref="F23:F24" si="1">C23*D23/(E23 * 1000)</f>
         <v>9.7400722021660658E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
         <v>101.96</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <f>0.00398*1000</f>
         <v>3.98</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <f t="shared" si="1"/>
         <v>2.5618090452261304E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>12.01</v>
-      </c>
-      <c r="E24" s="22">
-        <f>$E$2</f>
-        <v>5</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" ref="F24" si="2">C24*D24/(E24 * 1000)</f>
-        <v>2.4020000000000001E-3</v>
-      </c>
-    </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>12.01</v>
+      </c>
+      <c r="E25" s="22">
+        <f>$E$3</f>
+        <v>5</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" ref="F25" si="2">C25*D25/(E25 * 1000)</f>
+        <v>2.4020000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
         <f>40.078+32.065+(16*4)+(18*2)</f>
         <v>172.143</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="4">
         <f>0.0055*1000</f>
         <v>5.5</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <f t="shared" si="0"/>
         <v>3.129872727272727E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
         <f>(55.845*2)+(16*3)+(18*0.5)</f>
         <v>168.69</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <f>0.0015*1000</f>
         <v>1.5</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <f t="shared" si="0"/>
         <v>0.11246</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <f>0.0027*1000</f>
         <v>2.7</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <f t="shared" si="0"/>
         <v>3.2656296296296294E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
         <f>88.906+30.974+(16*4)</f>
         <v>183.88</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <f t="shared" si="0"/>
         <v>7.3551999999999992E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8">
-        <f>55.845*2</f>
-        <v>111.69</v>
-      </c>
-      <c r="E29" s="4">
-        <f>0.026*1000</f>
-        <v>26</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="0"/>
-        <v>4.2957692307692306E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>53</v>
@@ -1924,130 +1927,145 @@
         <v>111.69</v>
       </c>
       <c r="E30" s="4">
+        <f>0.026*1000</f>
+        <v>26</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2957692307692306E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+      <c r="E31" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <f t="shared" si="0"/>
         <v>1.4319230769230768E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
         <v>233.88</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <f>0.005*1000</f>
         <v>5</v>
       </c>
-      <c r="F31" s="9">
-        <f t="shared" ref="F31:F32" si="3">C31*D31/(E31 * 1000)</f>
+      <c r="F32" s="9">
+        <f t="shared" ref="F32:F33" si="3">C32*D32/(E32 * 1000)</f>
         <v>4.6775999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
         <v>30.97</v>
       </c>
-      <c r="E32" s="22">
-        <f>$E$2</f>
+      <c r="E33" s="22">
+        <f>$E$3</f>
         <v>5</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <f t="shared" si="3"/>
         <v>6.1939999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8">
         <f>195.078</f>
         <v>195.078</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <f>0.0078*1000</f>
         <v>7.8</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <f t="shared" si="0"/>
         <v>2.5010000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
         <f>28.086*2</f>
         <v>56.171999999999997</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <f>0.0025*1000</f>
         <v>2.5</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <f t="shared" si="0"/>
         <v>2.2468799999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
         <v>0</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <f>0.0016*1000</f>
         <v>1.6</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -2128,6 +2146,14 @@
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3251,9 +3277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+      <selection pane="topRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3605,59 +3631,59 @@
         <v>71</v>
       </c>
       <c r="B3" s="51">
-        <f>SUM(B5:B18)</f>
+        <f t="shared" ref="B3:O3" si="0">SUM(B5:B18)</f>
         <v>93</v>
       </c>
       <c r="C3" s="51">
-        <f>SUM(C5:C18)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D3" s="51">
-        <f>SUM(D5:D18)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="E3" s="51">
-        <f>SUM(E5:E18)</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="F3" s="51">
-        <f>SUM(F5:F18)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="G3" s="51">
-        <f>SUM(G5:G18)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="H3" s="51">
-        <f>SUM(H5:H18)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="I3" s="51">
-        <f>SUM(I5:I18)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="J3" s="51">
-        <f>SUM(J5:J18)</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="K3" s="53">
-        <f>SUM(K5:K18)</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="L3" s="53">
-        <f>SUM(L5:L18)</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="M3" s="51">
-        <f>SUM(M5:M18)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="N3" s="51">
-        <f>SUM(N5:N18)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="O3" s="51">
-        <f>SUM(O5:O18)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="P3" s="51"/>
@@ -4020,60 +4046,60 @@
         <v>10</v>
       </c>
       <c r="C21" s="51">
-        <f t="shared" ref="C21:Q21" si="0">SUM(C23:C31)</f>
+        <f t="shared" ref="C21:Q21" si="1">SUM(C23:C31)</f>
         <v>9</v>
       </c>
       <c r="D21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="J21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="K21" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="L21" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="M21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="N21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="O21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="P21" s="51"/>
       <c r="Q21" s="51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>

--- a/RR-ISRU.xlsx
+++ b/RR-ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="17700" windowHeight="10485"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="molar Mass" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
   <si>
     <t>Resource</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>Pb</t>
+  </si>
+  <si>
+    <t>Slag</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,12 +760,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -803,7 +800,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -943,7 +940,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1263,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -3275,11 +3271,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P11" sqref="P11"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3287,73 +3283,80 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="51">
+        <f>SUM(B4:B17)</f>
+        <v>95</v>
+      </c>
+      <c r="C2" s="51">
+        <f t="shared" ref="C2:H2" si="0">SUM(C4:C17)</f>
+        <v>95</v>
+      </c>
+      <c r="D2" s="51">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E2" s="51">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F2" s="51">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="51">
-        <f>SUM(B5:B10)</f>
-        <v>95</v>
-      </c>
-      <c r="C3" s="51">
-        <f t="shared" ref="C3:H3" si="0">SUM(C5:C10)</f>
-        <v>95</v>
-      </c>
-      <c r="D3" s="51">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E3" s="51">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="F3" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51">
-        <f t="shared" si="0"/>
-        <v>90</v>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>85</v>
-      </c>
-      <c r="F5" s="52"/>
-      <c r="H5">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3366,180 +3369,269 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="F6" s="52"/>
       <c r="H6">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>85</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="H7">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8">
-        <v>85</v>
-      </c>
-      <c r="F8" s="52"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
       </c>
       <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="52"/>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B17">
         <v>90</v>
       </c>
-      <c r="C10">
+      <c r="C17">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="E10">
+      <c r="E17">
         <v>5</v>
       </c>
-      <c r="F10" s="52"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="51">
-        <f>SUM(B15:B22)</f>
+      <c r="B20" s="51">
+        <f>SUM(B22:B33)</f>
         <v>97</v>
       </c>
-      <c r="C13" s="51">
-        <f t="shared" ref="C13:H13" si="1">SUM(C15:C22)</f>
+      <c r="C20" s="51">
+        <f t="shared" ref="C20:H20" si="1">SUM(C22:C33)</f>
         <v>95</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D20" s="51">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E20" s="51">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51">
+      <c r="F20" s="51">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16">
-        <v>90</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>65</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>85</v>
-      </c>
-      <c r="H18">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51">
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>85</v>
+      </c>
+      <c r="H25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>87</v>
       </c>
-      <c r="B22">
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C33">
         <v>40</v>
       </c>
-      <c r="D22">
+      <c r="D33">
         <v>3</v>
       </c>
-      <c r="E22">
+      <c r="E33">
         <v>3</v>
       </c>
-      <c r="H22">
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="H33">
         <v>3</v>
       </c>
     </row>
@@ -3551,11 +3643,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3575,382 +3667,398 @@
     <col min="15" max="15" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="51">
+        <f t="shared" ref="B2:O2" si="0">SUM(B4:B17)</f>
+        <v>93</v>
+      </c>
+      <c r="C2" s="51">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="D2" s="51">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E2" s="51">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="F2" s="51">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="G2" s="51">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="50" t="s">
+      <c r="H2" s="51">
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="I2" s="51">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="J2" s="51">
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="K2" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="N2" s="50" t="s">
+      <c r="K2" s="51">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="L2" s="51">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="M2" s="51">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="N2" s="51">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O2" s="51">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51">
+        <f>SUM(Q4:Q17)</f>
         <v>95</v>
       </c>
-      <c r="O2" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="51">
-        <f t="shared" ref="B3:O3" si="0">SUM(B5:B18)</f>
-        <v>93</v>
-      </c>
-      <c r="C3" s="51">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="D3" s="51">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="E3" s="51">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="F3" s="51">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="G3" s="51">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="H3" s="51">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="I3" s="51">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="J3" s="51">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="K3" s="53">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="L3" s="53">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="M3" s="51">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="N3" s="51">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="O3" s="51">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51">
-        <f>SUM(Q5:Q18)</f>
-        <v>95</v>
-      </c>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="F5">
+        <v>98</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
       <c r="M5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
         <v>5</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
         <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>91</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
       <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
       <c r="M9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10" s="52">
-        <v>10</v>
-      </c>
-      <c r="L10" s="52">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="K10">
+        <v>78</v>
+      </c>
+      <c r="L10">
+        <v>78</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="N10">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11">
+        <v>102</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
         <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>74</v>
-      </c>
-      <c r="J11">
-        <v>74</v>
-      </c>
-      <c r="K11" s="52">
-        <v>78</v>
-      </c>
-      <c r="L11" s="52">
-        <v>78</v>
-      </c>
-      <c r="M11">
-        <v>70</v>
-      </c>
-      <c r="N11">
-        <v>75</v>
-      </c>
-      <c r="O11">
-        <v>85</v>
-      </c>
-      <c r="Q11">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
       <c r="M12">
-        <v>8</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13" s="52">
-        <v>4</v>
-      </c>
-      <c r="L13" s="52">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="H13">
+        <v>90</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C14">
-        <v>74</v>
-      </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="F14">
-        <v>75</v>
-      </c>
-      <c r="G14">
-        <v>85</v>
-      </c>
-      <c r="H14">
-        <v>90</v>
-      </c>
-      <c r="K14" s="52">
-        <v>1</v>
-      </c>
-      <c r="L14" s="52">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
@@ -3962,260 +4070,245 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="52">
-        <v>1</v>
-      </c>
-      <c r="L15" s="52">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="M17">
         <v>2</v>
       </c>
-      <c r="K17" s="52">
-        <v>4</v>
-      </c>
-      <c r="L17" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="51">
-        <f>SUM(B23:B31)</f>
+      <c r="B20" s="51">
+        <f>SUM(B22:B30)</f>
         <v>10</v>
       </c>
-      <c r="C21" s="51">
-        <f t="shared" ref="C21:Q21" si="1">SUM(C23:C31)</f>
+      <c r="C20" s="51">
+        <f t="shared" ref="C20:Q20" si="1">SUM(C22:C30)</f>
         <v>9</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D20" s="51">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E20" s="51">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F20" s="51">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G20" s="51">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H20" s="51">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I20" s="51">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J20" s="51">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K20" s="51">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="L21" s="53">
+      <c r="L20" s="51">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M20" s="51">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N20" s="51">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O20" s="51">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51">
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>9</v>
+      </c>
+    </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>12</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
         <v>5</v>
       </c>
-      <c r="O23">
-        <v>9</v>
+      <c r="Q23">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
       <c r="M24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>7</v>
-      </c>
-      <c r="O24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>2</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25" s="52">
-        <v>4</v>
-      </c>
-      <c r="L25" s="52">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
       <c r="N25">
-        <v>2</v>
-      </c>
-      <c r="Q25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="52">
-        <v>1</v>
-      </c>
-      <c r="L26" s="52">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
@@ -4227,142 +4320,123 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>74</v>
+      </c>
+      <c r="J27">
+        <v>70</v>
+      </c>
+      <c r="K27">
+        <v>78</v>
+      </c>
+      <c r="L27">
+        <v>78</v>
+      </c>
+      <c r="M27">
+        <v>70</v>
+      </c>
+      <c r="N27">
+        <v>75</v>
+      </c>
+      <c r="O27">
         <v>85</v>
       </c>
-      <c r="K27" s="52">
-        <v>1</v>
-      </c>
-      <c r="L27" s="52">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
+      <c r="Q27">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
         <v>2</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>74</v>
-      </c>
-      <c r="J28">
-        <v>70</v>
-      </c>
-      <c r="K28" s="52">
-        <v>78</v>
-      </c>
-      <c r="L28" s="52">
-        <v>78</v>
-      </c>
-      <c r="M28">
-        <v>70</v>
-      </c>
-      <c r="N28">
-        <v>75</v>
-      </c>
-      <c r="O28">
-        <v>85</v>
-      </c>
-      <c r="Q28">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29">
-        <v>5</v>
-      </c>
-      <c r="N29">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
       <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
         <v>2</v>
       </c>
-      <c r="K30" s="52">
-        <v>4</v>
-      </c>
-      <c r="L30" s="52">
-        <v>1</v>
-      </c>
       <c r="Q30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>4</v>
-      </c>
-      <c r="K31" s="52">
-        <v>1</v>
-      </c>
-      <c r="L31" s="52">
-        <v>3</v>
-      </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
         <v>4</v>
       </c>
     </row>
@@ -4376,10 +4450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6174,23 +6247,57 @@
       <c r="Q34" s="37"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
+      <c r="A35" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0</v>
+      </c>
+      <c r="C35" s="31">
+        <v>0</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="48">
+        <f t="shared" ref="E35" si="16">IF((B35&gt;0),(D35/(B35/2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="43">
+        <v>0.41</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="49">
+        <f t="shared" ref="H35" si="17">(F35*(B35/2)+B35)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="49">
+        <f t="shared" ref="I35" si="18">IF(G35&gt;=F35,SUM(G35*(B35/2)+B35),H35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="44" t="str">
+        <f t="shared" ref="J35" si="19">IF(H35&lt;=B35+C35,"Yes","-")</f>
+        <v>Yes</v>
+      </c>
+      <c r="K35" s="33">
+        <v>751900</v>
+      </c>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="45">
+        <f t="shared" ref="N35" si="20">L35*B35</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="45">
+        <f t="shared" ref="O35" si="21">IF((M35*B35&gt;=N35),M35*B35,N35)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="44" t="str">
+        <f t="shared" ref="P35" si="22">IF(SUM(H35-(N35/2))&lt;=B35+C35,"Yes","-")</f>
+        <v>Yes</v>
+      </c>
+      <c r="Q35" s="44" t="str">
+        <f t="shared" ref="Q35" si="23">IF(SUM(I35-(O35/2))&lt;=B35+C35,"Yes","-")</f>
+        <v>Yes</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>

--- a/RR-ISRU.xlsx
+++ b/RR-ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="4"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="molar Mass" sheetId="1" r:id="rId1"/>
@@ -3273,9 +3273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3356,7 +3356,7 @@
         <v>54</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3369,6 +3369,9 @@
       <c r="D6">
         <v>5</v>
       </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
       <c r="H6">
         <v>9</v>
       </c>
@@ -3398,6 +3401,9 @@
       </c>
       <c r="E9">
         <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
       </c>
       <c r="H9">
         <v>80</v>
@@ -3552,6 +3558,9 @@
       <c r="D25">
         <v>85</v>
       </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
       <c r="H25">
         <v>70</v>
       </c>
@@ -3604,7 +3613,7 @@
         <v>155</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3646,8 +3655,8 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4450,7 +4459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>

--- a/RR-ISRU.xlsx
+++ b/RR-ISRU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="2"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="17700" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="molar Mass" sheetId="1" r:id="rId1"/>
@@ -2161,9 +2161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D24" sqref="D24"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2293,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -2620,7 +2620,7 @@
         <v>9</v>
       </c>
       <c r="K17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L17">
         <v>14</v>
@@ -3273,7 +3273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F31" sqref="F31"/>
     </sheetView>
@@ -3655,8 +3655,8 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y7" sqref="Y7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
